--- a/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -564,7 +564,7 @@
         <v>58.07</v>
       </c>
       <c r="F5" t="n">
-        <v>56.714275</v>
+        <v>56.714279</v>
       </c>
       <c r="G5" t="n">
         <v>2536600</v>
@@ -589,7 +589,7 @@
         <v>58.130001</v>
       </c>
       <c r="F6" t="n">
-        <v>56.772873</v>
+        <v>56.772881</v>
       </c>
       <c r="G6" t="n">
         <v>2351600</v>
@@ -614,7 +614,7 @@
         <v>58.099998</v>
       </c>
       <c r="F7" t="n">
-        <v>56.743576</v>
+        <v>56.743572</v>
       </c>
       <c r="G7" t="n">
         <v>2574800</v>
@@ -639,7 +639,7 @@
         <v>58.130001</v>
       </c>
       <c r="F8" t="n">
-        <v>56.772873</v>
+        <v>56.772881</v>
       </c>
       <c r="G8" t="n">
         <v>6069500</v>
@@ -664,7 +664,7 @@
         <v>58.25</v>
       </c>
       <c r="F9" t="n">
-        <v>56.890076</v>
+        <v>56.890072</v>
       </c>
       <c r="G9" t="n">
         <v>2551000</v>
@@ -689,7 +689,7 @@
         <v>58.169998</v>
       </c>
       <c r="F10" t="n">
-        <v>56.811943</v>
+        <v>56.811935</v>
       </c>
       <c r="G10" t="n">
         <v>3338200</v>
@@ -739,7 +739,7 @@
         <v>58.34</v>
       </c>
       <c r="F12" t="n">
-        <v>56.977974</v>
+        <v>56.977966</v>
       </c>
       <c r="G12" t="n">
         <v>4291400</v>
@@ -764,7 +764,7 @@
         <v>58.32</v>
       </c>
       <c r="F13" t="n">
-        <v>56.958443</v>
+        <v>56.958439</v>
       </c>
       <c r="G13" t="n">
         <v>2681700</v>
@@ -789,7 +789,7 @@
         <v>58.259998</v>
       </c>
       <c r="F14" t="n">
-        <v>56.899834</v>
+        <v>56.899837</v>
       </c>
       <c r="G14" t="n">
         <v>2691900</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.841244</v>
+        <v>56.84124</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -864,7 +864,7 @@
         <v>58.25</v>
       </c>
       <c r="F17" t="n">
-        <v>56.890076</v>
+        <v>56.890072</v>
       </c>
       <c r="G17" t="n">
         <v>2128400</v>
@@ -889,7 +889,7 @@
         <v>58.23</v>
       </c>
       <c r="F18" t="n">
-        <v>56.870544</v>
+        <v>56.870541</v>
       </c>
       <c r="G18" t="n">
         <v>3378700</v>
@@ -939,7 +939,7 @@
         <v>58.16</v>
       </c>
       <c r="F20" t="n">
-        <v>56.802177</v>
+        <v>56.802174</v>
       </c>
       <c r="G20" t="n">
         <v>4835000</v>
@@ -964,7 +964,7 @@
         <v>58.25</v>
       </c>
       <c r="F21" t="n">
-        <v>56.890076</v>
+        <v>56.890072</v>
       </c>
       <c r="G21" t="n">
         <v>1925300</v>
@@ -1014,7 +1014,7 @@
         <v>58.25</v>
       </c>
       <c r="F23" t="n">
-        <v>57.012421</v>
+        <v>57.012417</v>
       </c>
       <c r="G23" t="n">
         <v>4006200</v>
@@ -1064,7 +1064,7 @@
         <v>57.869999</v>
       </c>
       <c r="F25" t="n">
-        <v>56.640491</v>
+        <v>56.640488</v>
       </c>
       <c r="G25" t="n">
         <v>6606400</v>
@@ -1114,7 +1114,7 @@
         <v>57.950001</v>
       </c>
       <c r="F27" t="n">
-        <v>56.718792</v>
+        <v>56.7188</v>
       </c>
       <c r="G27" t="n">
         <v>2063900</v>
@@ -1139,7 +1139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F28" t="n">
-        <v>56.669857</v>
+        <v>56.669853</v>
       </c>
       <c r="G28" t="n">
         <v>2307100</v>
@@ -1164,7 +1164,7 @@
         <v>57.869999</v>
       </c>
       <c r="F29" t="n">
-        <v>56.640491</v>
+        <v>56.640488</v>
       </c>
       <c r="G29" t="n">
         <v>2844700</v>
@@ -1189,7 +1189,7 @@
         <v>57.849998</v>
       </c>
       <c r="F30" t="n">
-        <v>56.620914</v>
+        <v>56.620918</v>
       </c>
       <c r="G30" t="n">
         <v>2826200</v>
@@ -1214,7 +1214,7 @@
         <v>57.77</v>
       </c>
       <c r="F31" t="n">
-        <v>56.542614</v>
+        <v>56.542618</v>
       </c>
       <c r="G31" t="n">
         <v>2827500</v>
@@ -1239,7 +1239,7 @@
         <v>57.75</v>
       </c>
       <c r="F32" t="n">
-        <v>56.523041</v>
+        <v>56.523048</v>
       </c>
       <c r="G32" t="n">
         <v>2379600</v>
@@ -1289,7 +1289,7 @@
         <v>57.810001</v>
       </c>
       <c r="F34" t="n">
-        <v>56.581772</v>
+        <v>56.581776</v>
       </c>
       <c r="G34" t="n">
         <v>2509800</v>
@@ -1314,7 +1314,7 @@
         <v>57.720001</v>
       </c>
       <c r="F35" t="n">
-        <v>56.493679</v>
+        <v>56.493683</v>
       </c>
       <c r="G35" t="n">
         <v>2876700</v>
@@ -1364,7 +1364,7 @@
         <v>57.759998</v>
       </c>
       <c r="F37" t="n">
-        <v>56.532829</v>
+        <v>56.532825</v>
       </c>
       <c r="G37" t="n">
         <v>2827500</v>
@@ -1414,7 +1414,7 @@
         <v>57.689999</v>
       </c>
       <c r="F39" t="n">
-        <v>56.464321</v>
+        <v>56.464317</v>
       </c>
       <c r="G39" t="n">
         <v>3556100</v>
@@ -1439,7 +1439,7 @@
         <v>57.689999</v>
       </c>
       <c r="F40" t="n">
-        <v>56.464321</v>
+        <v>56.464317</v>
       </c>
       <c r="G40" t="n">
         <v>3243300</v>
@@ -1489,7 +1489,7 @@
         <v>57.48</v>
       </c>
       <c r="F42" t="n">
-        <v>56.377029</v>
+        <v>56.377022</v>
       </c>
       <c r="G42" t="n">
         <v>3091200</v>
@@ -1514,7 +1514,7 @@
         <v>57.509998</v>
       </c>
       <c r="F43" t="n">
-        <v>56.406448</v>
+        <v>56.406445</v>
       </c>
       <c r="G43" t="n">
         <v>2867800</v>
@@ -1539,7 +1539,7 @@
         <v>57.5</v>
       </c>
       <c r="F44" t="n">
-        <v>56.396637</v>
+        <v>56.396645</v>
       </c>
       <c r="G44" t="n">
         <v>2549000</v>
@@ -1639,7 +1639,7 @@
         <v>57.84</v>
       </c>
       <c r="F48" t="n">
-        <v>56.730118</v>
+        <v>56.730114</v>
       </c>
       <c r="G48" t="n">
         <v>5449300</v>
@@ -1689,7 +1689,7 @@
         <v>58.200001</v>
       </c>
       <c r="F50" t="n">
-        <v>57.083218</v>
+        <v>57.083206</v>
       </c>
       <c r="G50" t="n">
         <v>7931300</v>
@@ -1714,7 +1714,7 @@
         <v>58.529999</v>
       </c>
       <c r="F51" t="n">
-        <v>57.406876</v>
+        <v>57.406879</v>
       </c>
       <c r="G51" t="n">
         <v>8773600</v>
@@ -1739,7 +1739,7 @@
         <v>58.299999</v>
       </c>
       <c r="F52" t="n">
-        <v>57.18129</v>
+        <v>57.181293</v>
       </c>
       <c r="G52" t="n">
         <v>5213100</v>
@@ -1764,7 +1764,7 @@
         <v>58.610001</v>
       </c>
       <c r="F53" t="n">
-        <v>57.485348</v>
+        <v>57.48534</v>
       </c>
       <c r="G53" t="n">
         <v>4941700</v>
@@ -1789,7 +1789,7 @@
         <v>58.529999</v>
       </c>
       <c r="F54" t="n">
-        <v>57.406876</v>
+        <v>57.406879</v>
       </c>
       <c r="G54" t="n">
         <v>3738700</v>
@@ -1814,7 +1814,7 @@
         <v>58.310001</v>
       </c>
       <c r="F55" t="n">
-        <v>57.191101</v>
+        <v>57.191097</v>
       </c>
       <c r="G55" t="n">
         <v>4389300</v>
@@ -1839,7 +1839,7 @@
         <v>58.57</v>
       </c>
       <c r="F56" t="n">
-        <v>57.446114</v>
+        <v>57.44611</v>
       </c>
       <c r="G56" t="n">
         <v>4934700</v>
@@ -1864,7 +1864,7 @@
         <v>58.75</v>
       </c>
       <c r="F57" t="n">
-        <v>57.622654</v>
+        <v>57.622658</v>
       </c>
       <c r="G57" t="n">
         <v>2637300</v>
@@ -1889,7 +1889,7 @@
         <v>58.77</v>
       </c>
       <c r="F58" t="n">
-        <v>57.642265</v>
+        <v>57.642269</v>
       </c>
       <c r="G58" t="n">
         <v>4445000</v>
@@ -1914,7 +1914,7 @@
         <v>58.540001</v>
       </c>
       <c r="F59" t="n">
-        <v>57.416687</v>
+        <v>57.416683</v>
       </c>
       <c r="G59" t="n">
         <v>3097200</v>
@@ -1939,7 +1939,7 @@
         <v>58.470001</v>
       </c>
       <c r="F60" t="n">
-        <v>57.34803</v>
+        <v>57.348026</v>
       </c>
       <c r="G60" t="n">
         <v>3140700</v>
@@ -1964,7 +1964,7 @@
         <v>58.439999</v>
       </c>
       <c r="F61" t="n">
-        <v>57.318607</v>
+        <v>57.3186</v>
       </c>
       <c r="G61" t="n">
         <v>3070900</v>
@@ -2014,7 +2014,7 @@
         <v>58.540001</v>
       </c>
       <c r="F63" t="n">
-        <v>57.416687</v>
+        <v>57.416683</v>
       </c>
       <c r="G63" t="n">
         <v>3751300</v>
@@ -2039,7 +2039,7 @@
         <v>58.439999</v>
       </c>
       <c r="F64" t="n">
-        <v>57.458965</v>
+        <v>57.458958</v>
       </c>
       <c r="G64" t="n">
         <v>5479300</v>
@@ -2064,7 +2064,7 @@
         <v>58.59</v>
       </c>
       <c r="F65" t="n">
-        <v>57.606449</v>
+        <v>57.606441</v>
       </c>
       <c r="G65" t="n">
         <v>2264900</v>
@@ -2114,7 +2114,7 @@
         <v>58.630001</v>
       </c>
       <c r="F67" t="n">
-        <v>57.645771</v>
+        <v>57.645779</v>
       </c>
       <c r="G67" t="n">
         <v>2662800</v>
@@ -2139,7 +2139,7 @@
         <v>58.450001</v>
       </c>
       <c r="F68" t="n">
-        <v>57.4688</v>
+        <v>57.468792</v>
       </c>
       <c r="G68" t="n">
         <v>2468900</v>
@@ -2164,7 +2164,7 @@
         <v>58.43</v>
       </c>
       <c r="F69" t="n">
-        <v>57.449131</v>
+        <v>57.449135</v>
       </c>
       <c r="G69" t="n">
         <v>3294500</v>
@@ -2189,7 +2189,7 @@
         <v>58.5</v>
       </c>
       <c r="F70" t="n">
-        <v>57.517956</v>
+        <v>57.51796</v>
       </c>
       <c r="G70" t="n">
         <v>4313600</v>
@@ -2214,7 +2214,7 @@
         <v>58.52</v>
       </c>
       <c r="F71" t="n">
-        <v>57.537617</v>
+        <v>57.537621</v>
       </c>
       <c r="G71" t="n">
         <v>5122000</v>
@@ -2264,7 +2264,7 @@
         <v>58.299999</v>
       </c>
       <c r="F73" t="n">
-        <v>57.321312</v>
+        <v>57.321316</v>
       </c>
       <c r="G73" t="n">
         <v>2750400</v>
@@ -2289,7 +2289,7 @@
         <v>58.299999</v>
       </c>
       <c r="F74" t="n">
-        <v>57.321312</v>
+        <v>57.321316</v>
       </c>
       <c r="G74" t="n">
         <v>1868400</v>
@@ -2314,7 +2314,7 @@
         <v>58.259998</v>
       </c>
       <c r="F75" t="n">
-        <v>57.281982</v>
+        <v>57.281986</v>
       </c>
       <c r="G75" t="n">
         <v>1666600</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.41964</v>
+        <v>57.419632</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2389,7 +2389,7 @@
         <v>58.419998</v>
       </c>
       <c r="F78" t="n">
-        <v>57.439297</v>
+        <v>57.439304</v>
       </c>
       <c r="G78" t="n">
         <v>1471000</v>
@@ -2439,7 +2439,7 @@
         <v>58.580002</v>
       </c>
       <c r="F80" t="n">
-        <v>57.596615</v>
+        <v>57.596619</v>
       </c>
       <c r="G80" t="n">
         <v>2334700</v>
@@ -2464,7 +2464,7 @@
         <v>58.459999</v>
       </c>
       <c r="F81" t="n">
-        <v>57.47863</v>
+        <v>57.478626</v>
       </c>
       <c r="G81" t="n">
         <v>1911900</v>
@@ -2489,7 +2489,7 @@
         <v>58.529999</v>
       </c>
       <c r="F82" t="n">
-        <v>57.547451</v>
+        <v>57.547455</v>
       </c>
       <c r="G82" t="n">
         <v>2723900</v>
@@ -2514,7 +2514,7 @@
         <v>58.259998</v>
       </c>
       <c r="F83" t="n">
-        <v>57.42326</v>
+        <v>57.423264</v>
       </c>
       <c r="G83" t="n">
         <v>1678000</v>
@@ -2539,7 +2539,7 @@
         <v>58.439999</v>
       </c>
       <c r="F84" t="n">
-        <v>57.600681</v>
+        <v>57.600674</v>
       </c>
       <c r="G84" t="n">
         <v>2370500</v>
@@ -2564,7 +2564,7 @@
         <v>58.59</v>
       </c>
       <c r="F85" t="n">
-        <v>57.748528</v>
+        <v>57.74852</v>
       </c>
       <c r="G85" t="n">
         <v>2877400</v>
@@ -2589,7 +2589,7 @@
         <v>58.689999</v>
       </c>
       <c r="F86" t="n">
-        <v>57.847088</v>
+        <v>57.847092</v>
       </c>
       <c r="G86" t="n">
         <v>2551200</v>
@@ -2614,7 +2614,7 @@
         <v>58.529999</v>
       </c>
       <c r="F87" t="n">
-        <v>57.689384</v>
+        <v>57.689388</v>
       </c>
       <c r="G87" t="n">
         <v>1626300</v>
@@ -2639,7 +2639,7 @@
         <v>58.439999</v>
       </c>
       <c r="F88" t="n">
-        <v>57.600681</v>
+        <v>57.600674</v>
       </c>
       <c r="G88" t="n">
         <v>1669900</v>
@@ -2664,7 +2664,7 @@
         <v>58.439999</v>
       </c>
       <c r="F89" t="n">
-        <v>57.600681</v>
+        <v>57.600674</v>
       </c>
       <c r="G89" t="n">
         <v>2252100</v>
@@ -2714,7 +2714,7 @@
         <v>58.610001</v>
       </c>
       <c r="F91" t="n">
-        <v>57.768242</v>
+        <v>57.768238</v>
       </c>
       <c r="G91" t="n">
         <v>19278500</v>
@@ -2739,7 +2739,7 @@
         <v>58.52</v>
       </c>
       <c r="F92" t="n">
-        <v>57.679527</v>
+        <v>57.679531</v>
       </c>
       <c r="G92" t="n">
         <v>10414100</v>
@@ -2764,7 +2764,7 @@
         <v>58.52</v>
       </c>
       <c r="F93" t="n">
-        <v>57.679527</v>
+        <v>57.679531</v>
       </c>
       <c r="G93" t="n">
         <v>2076500</v>
@@ -2789,7 +2789,7 @@
         <v>58.450001</v>
       </c>
       <c r="F94" t="n">
-        <v>57.610538</v>
+        <v>57.610531</v>
       </c>
       <c r="G94" t="n">
         <v>2691000</v>
@@ -2864,7 +2864,7 @@
         <v>58.240002</v>
       </c>
       <c r="F97" t="n">
-        <v>57.403553</v>
+        <v>57.403545</v>
       </c>
       <c r="G97" t="n">
         <v>2547700</v>
@@ -2889,7 +2889,7 @@
         <v>58.220001</v>
       </c>
       <c r="F98" t="n">
-        <v>57.383839</v>
+        <v>57.383842</v>
       </c>
       <c r="G98" t="n">
         <v>2698700</v>
@@ -2914,7 +2914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F99" t="n">
-        <v>57.383839</v>
+        <v>57.383842</v>
       </c>
       <c r="G99" t="n">
         <v>2177500</v>
@@ -3014,7 +3014,7 @@
         <v>58.110001</v>
       </c>
       <c r="F103" t="n">
-        <v>57.275421</v>
+        <v>57.275417</v>
       </c>
       <c r="G103" t="n">
         <v>2152300</v>
@@ -3064,7 +3064,7 @@
         <v>58.110001</v>
       </c>
       <c r="F105" t="n">
-        <v>57.425503</v>
+        <v>57.425499</v>
       </c>
       <c r="G105" t="n">
         <v>4234800</v>
@@ -3139,7 +3139,7 @@
         <v>57.93</v>
       </c>
       <c r="F108" t="n">
-        <v>57.24762</v>
+        <v>57.247623</v>
       </c>
       <c r="G108" t="n">
         <v>2396100</v>
@@ -3164,7 +3164,7 @@
         <v>57.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>57.198208</v>
+        <v>57.198212</v>
       </c>
       <c r="G109" t="n">
         <v>2428900</v>
@@ -3189,7 +3189,7 @@
         <v>57.959999</v>
       </c>
       <c r="F110" t="n">
-        <v>57.277264</v>
+        <v>57.277267</v>
       </c>
       <c r="G110" t="n">
         <v>1710100</v>
@@ -3214,7 +3214,7 @@
         <v>57.880001</v>
       </c>
       <c r="F111" t="n">
-        <v>57.198208</v>
+        <v>57.198212</v>
       </c>
       <c r="G111" t="n">
         <v>1852100</v>
@@ -3264,7 +3264,7 @@
         <v>57.82</v>
       </c>
       <c r="F113" t="n">
-        <v>57.138916</v>
+        <v>57.13892</v>
       </c>
       <c r="G113" t="n">
         <v>2290700</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.217976</v>
+        <v>57.217972</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3339,7 +3339,7 @@
         <v>57.82</v>
       </c>
       <c r="F116" t="n">
-        <v>57.138916</v>
+        <v>57.13892</v>
       </c>
       <c r="G116" t="n">
         <v>3299100</v>
@@ -3464,7 +3464,7 @@
         <v>57.880001</v>
       </c>
       <c r="F121" t="n">
-        <v>57.198208</v>
+        <v>57.198212</v>
       </c>
       <c r="G121" t="n">
         <v>2136700</v>
@@ -3589,7 +3589,7 @@
         <v>57.509998</v>
       </c>
       <c r="F126" t="n">
-        <v>56.989529</v>
+        <v>56.989525</v>
       </c>
       <c r="G126" t="n">
         <v>2763700</v>
@@ -3614,7 +3614,7 @@
         <v>57.509998</v>
       </c>
       <c r="F127" t="n">
-        <v>56.989529</v>
+        <v>56.989525</v>
       </c>
       <c r="G127" t="n">
         <v>3049800</v>
@@ -3664,7 +3664,7 @@
         <v>57.509998</v>
       </c>
       <c r="F129" t="n">
-        <v>56.989529</v>
+        <v>56.989525</v>
       </c>
       <c r="G129" t="n">
         <v>2178900</v>
@@ -3789,7 +3789,7 @@
         <v>57.790001</v>
       </c>
       <c r="F134" t="n">
-        <v>57.266991</v>
+        <v>57.266994</v>
       </c>
       <c r="G134" t="n">
         <v>2117400</v>
@@ -3839,7 +3839,7 @@
         <v>57.799999</v>
       </c>
       <c r="F136" t="n">
-        <v>57.276901</v>
+        <v>57.276905</v>
       </c>
       <c r="G136" t="n">
         <v>1705300</v>
@@ -3889,7 +3889,7 @@
         <v>57.75</v>
       </c>
       <c r="F138" t="n">
-        <v>57.227356</v>
+        <v>57.22736</v>
       </c>
       <c r="G138" t="n">
         <v>1812200</v>
@@ -3939,7 +3939,7 @@
         <v>57.689999</v>
       </c>
       <c r="F140" t="n">
-        <v>57.1679</v>
+        <v>57.167896</v>
       </c>
       <c r="G140" t="n">
         <v>2301100</v>
@@ -3964,7 +3964,7 @@
         <v>57.689999</v>
       </c>
       <c r="F141" t="n">
-        <v>57.1679</v>
+        <v>57.167896</v>
       </c>
       <c r="G141" t="n">
         <v>1930700</v>

--- a/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>57.860001</v>
       </c>
       <c r="F2" t="n">
-        <v>56.509182</v>
+        <v>56.509178</v>
       </c>
       <c r="G2" t="n">
         <v>6806600</v>
@@ -539,7 +539,7 @@
         <v>57.860001</v>
       </c>
       <c r="F4" t="n">
-        <v>56.509182</v>
+        <v>56.509178</v>
       </c>
       <c r="G4" t="n">
         <v>3549300</v>
@@ -564,7 +564,7 @@
         <v>58.07</v>
       </c>
       <c r="F5" t="n">
-        <v>56.714279</v>
+        <v>56.714275</v>
       </c>
       <c r="G5" t="n">
         <v>2536600</v>
@@ -589,7 +589,7 @@
         <v>58.130001</v>
       </c>
       <c r="F6" t="n">
-        <v>56.772881</v>
+        <v>56.772877</v>
       </c>
       <c r="G6" t="n">
         <v>2351600</v>
@@ -639,7 +639,7 @@
         <v>58.130001</v>
       </c>
       <c r="F8" t="n">
-        <v>56.772881</v>
+        <v>56.772877</v>
       </c>
       <c r="G8" t="n">
         <v>6069500</v>
@@ -664,7 +664,7 @@
         <v>58.25</v>
       </c>
       <c r="F9" t="n">
-        <v>56.890072</v>
+        <v>56.890079</v>
       </c>
       <c r="G9" t="n">
         <v>2551000</v>
@@ -689,7 +689,7 @@
         <v>58.169998</v>
       </c>
       <c r="F10" t="n">
-        <v>56.811935</v>
+        <v>56.811939</v>
       </c>
       <c r="G10" t="n">
         <v>3338200</v>
@@ -739,7 +739,7 @@
         <v>58.34</v>
       </c>
       <c r="F12" t="n">
-        <v>56.977966</v>
+        <v>56.977978</v>
       </c>
       <c r="G12" t="n">
         <v>4291400</v>
@@ -789,7 +789,7 @@
         <v>58.259998</v>
       </c>
       <c r="F14" t="n">
-        <v>56.899837</v>
+        <v>56.899841</v>
       </c>
       <c r="G14" t="n">
         <v>2691900</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.84124</v>
+        <v>56.841248</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -839,7 +839,7 @@
         <v>58.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>56.860771</v>
+        <v>56.860779</v>
       </c>
       <c r="G16" t="n">
         <v>1941800</v>
@@ -864,7 +864,7 @@
         <v>58.25</v>
       </c>
       <c r="F17" t="n">
-        <v>56.890072</v>
+        <v>56.890079</v>
       </c>
       <c r="G17" t="n">
         <v>2128400</v>
@@ -914,7 +914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F19" t="n">
-        <v>56.860771</v>
+        <v>56.860779</v>
       </c>
       <c r="G19" t="n">
         <v>2692100</v>
@@ -939,7 +939,7 @@
         <v>58.16</v>
       </c>
       <c r="F20" t="n">
-        <v>56.802174</v>
+        <v>56.80217</v>
       </c>
       <c r="G20" t="n">
         <v>4835000</v>
@@ -964,7 +964,7 @@
         <v>58.25</v>
       </c>
       <c r="F21" t="n">
-        <v>56.890072</v>
+        <v>56.890079</v>
       </c>
       <c r="G21" t="n">
         <v>1925300</v>
@@ -1014,7 +1014,7 @@
         <v>58.25</v>
       </c>
       <c r="F23" t="n">
-        <v>57.012417</v>
+        <v>57.012424</v>
       </c>
       <c r="G23" t="n">
         <v>4006200</v>
@@ -1039,7 +1039,7 @@
         <v>58.060001</v>
       </c>
       <c r="F24" t="n">
-        <v>56.826458</v>
+        <v>56.826462</v>
       </c>
       <c r="G24" t="n">
         <v>3923500</v>
@@ -1064,7 +1064,7 @@
         <v>57.869999</v>
       </c>
       <c r="F25" t="n">
-        <v>56.640488</v>
+        <v>56.640495</v>
       </c>
       <c r="G25" t="n">
         <v>6606400</v>
@@ -1089,7 +1089,7 @@
         <v>57.91</v>
       </c>
       <c r="F26" t="n">
-        <v>56.679638</v>
+        <v>56.679642</v>
       </c>
       <c r="G26" t="n">
         <v>4547500</v>
@@ -1164,7 +1164,7 @@
         <v>57.869999</v>
       </c>
       <c r="F29" t="n">
-        <v>56.640488</v>
+        <v>56.640495</v>
       </c>
       <c r="G29" t="n">
         <v>2844700</v>
@@ -1189,7 +1189,7 @@
         <v>57.849998</v>
       </c>
       <c r="F30" t="n">
-        <v>56.620918</v>
+        <v>56.620914</v>
       </c>
       <c r="G30" t="n">
         <v>2826200</v>
@@ -1239,7 +1239,7 @@
         <v>57.75</v>
       </c>
       <c r="F32" t="n">
-        <v>56.523048</v>
+        <v>56.523045</v>
       </c>
       <c r="G32" t="n">
         <v>2379600</v>
@@ -1264,7 +1264,7 @@
         <v>57.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>56.552402</v>
+        <v>56.552406</v>
       </c>
       <c r="G33" t="n">
         <v>4369300</v>
@@ -1289,7 +1289,7 @@
         <v>57.810001</v>
       </c>
       <c r="F34" t="n">
-        <v>56.581776</v>
+        <v>56.581772</v>
       </c>
       <c r="G34" t="n">
         <v>2509800</v>
@@ -1314,7 +1314,7 @@
         <v>57.720001</v>
       </c>
       <c r="F35" t="n">
-        <v>56.493683</v>
+        <v>56.493679</v>
       </c>
       <c r="G35" t="n">
         <v>2876700</v>
@@ -1339,7 +1339,7 @@
         <v>57.740002</v>
       </c>
       <c r="F36" t="n">
-        <v>56.51326</v>
+        <v>56.513264</v>
       </c>
       <c r="G36" t="n">
         <v>5708400</v>
@@ -1364,7 +1364,7 @@
         <v>57.759998</v>
       </c>
       <c r="F37" t="n">
-        <v>56.532825</v>
+        <v>56.532829</v>
       </c>
       <c r="G37" t="n">
         <v>2827500</v>
@@ -1464,7 +1464,7 @@
         <v>57.470001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.367222</v>
+        <v>56.367218</v>
       </c>
       <c r="G41" t="n">
         <v>3318800</v>
@@ -1514,7 +1514,7 @@
         <v>57.509998</v>
       </c>
       <c r="F43" t="n">
-        <v>56.406445</v>
+        <v>56.406448</v>
       </c>
       <c r="G43" t="n">
         <v>2867800</v>
@@ -1539,7 +1539,7 @@
         <v>57.5</v>
       </c>
       <c r="F44" t="n">
-        <v>56.396645</v>
+        <v>56.396641</v>
       </c>
       <c r="G44" t="n">
         <v>2549000</v>
@@ -1614,7 +1614,7 @@
         <v>57.52</v>
       </c>
       <c r="F47" t="n">
-        <v>56.41626</v>
+        <v>56.416267</v>
       </c>
       <c r="G47" t="n">
         <v>4419000</v>
@@ -1664,7 +1664,7 @@
         <v>58.41</v>
       </c>
       <c r="F49" t="n">
-        <v>57.289181</v>
+        <v>57.289185</v>
       </c>
       <c r="G49" t="n">
         <v>11000700</v>
@@ -1689,7 +1689,7 @@
         <v>58.200001</v>
       </c>
       <c r="F50" t="n">
-        <v>57.083206</v>
+        <v>57.083214</v>
       </c>
       <c r="G50" t="n">
         <v>7931300</v>
@@ -1714,7 +1714,7 @@
         <v>58.529999</v>
       </c>
       <c r="F51" t="n">
-        <v>57.406879</v>
+        <v>57.406876</v>
       </c>
       <c r="G51" t="n">
         <v>8773600</v>
@@ -1739,7 +1739,7 @@
         <v>58.299999</v>
       </c>
       <c r="F52" t="n">
-        <v>57.181293</v>
+        <v>57.18129</v>
       </c>
       <c r="G52" t="n">
         <v>5213100</v>
@@ -1789,7 +1789,7 @@
         <v>58.529999</v>
       </c>
       <c r="F54" t="n">
-        <v>57.406879</v>
+        <v>57.406876</v>
       </c>
       <c r="G54" t="n">
         <v>3738700</v>
@@ -1814,7 +1814,7 @@
         <v>58.310001</v>
       </c>
       <c r="F55" t="n">
-        <v>57.191097</v>
+        <v>57.191101</v>
       </c>
       <c r="G55" t="n">
         <v>4389300</v>
@@ -1864,7 +1864,7 @@
         <v>58.75</v>
       </c>
       <c r="F57" t="n">
-        <v>57.622658</v>
+        <v>57.622654</v>
       </c>
       <c r="G57" t="n">
         <v>2637300</v>
@@ -1889,7 +1889,7 @@
         <v>58.77</v>
       </c>
       <c r="F58" t="n">
-        <v>57.642269</v>
+        <v>57.642277</v>
       </c>
       <c r="G58" t="n">
         <v>4445000</v>
@@ -1914,7 +1914,7 @@
         <v>58.540001</v>
       </c>
       <c r="F59" t="n">
-        <v>57.416683</v>
+        <v>57.416687</v>
       </c>
       <c r="G59" t="n">
         <v>3097200</v>
@@ -1939,7 +1939,7 @@
         <v>58.470001</v>
       </c>
       <c r="F60" t="n">
-        <v>57.348026</v>
+        <v>57.34803</v>
       </c>
       <c r="G60" t="n">
         <v>3140700</v>
@@ -1989,7 +1989,7 @@
         <v>58.450001</v>
       </c>
       <c r="F62" t="n">
-        <v>57.328415</v>
+        <v>57.328411</v>
       </c>
       <c r="G62" t="n">
         <v>2212800</v>
@@ -2014,7 +2014,7 @@
         <v>58.540001</v>
       </c>
       <c r="F63" t="n">
-        <v>57.416683</v>
+        <v>57.416687</v>
       </c>
       <c r="G63" t="n">
         <v>3751300</v>
@@ -2039,7 +2039,7 @@
         <v>58.439999</v>
       </c>
       <c r="F64" t="n">
-        <v>57.458958</v>
+        <v>57.458961</v>
       </c>
       <c r="G64" t="n">
         <v>5479300</v>
@@ -2089,7 +2089,7 @@
         <v>58.66</v>
       </c>
       <c r="F66" t="n">
-        <v>57.67527</v>
+        <v>57.675266</v>
       </c>
       <c r="G66" t="n">
         <v>2286600</v>
@@ -2139,7 +2139,7 @@
         <v>58.450001</v>
       </c>
       <c r="F68" t="n">
-        <v>57.468792</v>
+        <v>57.468796</v>
       </c>
       <c r="G68" t="n">
         <v>2468900</v>
@@ -2214,7 +2214,7 @@
         <v>58.52</v>
       </c>
       <c r="F71" t="n">
-        <v>57.537621</v>
+        <v>57.537617</v>
       </c>
       <c r="G71" t="n">
         <v>5122000</v>
@@ -2239,7 +2239,7 @@
         <v>58.41</v>
       </c>
       <c r="F72" t="n">
-        <v>57.429466</v>
+        <v>57.42947</v>
       </c>
       <c r="G72" t="n">
         <v>2517600</v>
@@ -2264,7 +2264,7 @@
         <v>58.299999</v>
       </c>
       <c r="F73" t="n">
-        <v>57.321316</v>
+        <v>57.321308</v>
       </c>
       <c r="G73" t="n">
         <v>2750400</v>
@@ -2289,7 +2289,7 @@
         <v>58.299999</v>
       </c>
       <c r="F74" t="n">
-        <v>57.321316</v>
+        <v>57.321308</v>
       </c>
       <c r="G74" t="n">
         <v>1868400</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.419632</v>
+        <v>57.41964</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2364,7 +2364,7 @@
         <v>58.360001</v>
       </c>
       <c r="F77" t="n">
-        <v>57.38031</v>
+        <v>57.380306</v>
       </c>
       <c r="G77" t="n">
         <v>2348500</v>
@@ -2389,7 +2389,7 @@
         <v>58.419998</v>
       </c>
       <c r="F78" t="n">
-        <v>57.439304</v>
+        <v>57.439301</v>
       </c>
       <c r="G78" t="n">
         <v>1471000</v>
@@ -2414,7 +2414,7 @@
         <v>58.66</v>
       </c>
       <c r="F79" t="n">
-        <v>57.67527</v>
+        <v>57.675266</v>
       </c>
       <c r="G79" t="n">
         <v>2037000</v>
@@ -2439,7 +2439,7 @@
         <v>58.580002</v>
       </c>
       <c r="F80" t="n">
-        <v>57.596619</v>
+        <v>57.596611</v>
       </c>
       <c r="G80" t="n">
         <v>2334700</v>
@@ -2464,7 +2464,7 @@
         <v>58.459999</v>
       </c>
       <c r="F81" t="n">
-        <v>57.478626</v>
+        <v>57.47863</v>
       </c>
       <c r="G81" t="n">
         <v>1911900</v>
@@ -2489,7 +2489,7 @@
         <v>58.529999</v>
       </c>
       <c r="F82" t="n">
-        <v>57.547455</v>
+        <v>57.547451</v>
       </c>
       <c r="G82" t="n">
         <v>2723900</v>
@@ -2589,7 +2589,7 @@
         <v>58.689999</v>
       </c>
       <c r="F86" t="n">
-        <v>57.847092</v>
+        <v>57.847084</v>
       </c>
       <c r="G86" t="n">
         <v>2551200</v>
@@ -2614,7 +2614,7 @@
         <v>58.529999</v>
       </c>
       <c r="F87" t="n">
-        <v>57.689388</v>
+        <v>57.689384</v>
       </c>
       <c r="G87" t="n">
         <v>1626300</v>
@@ -2689,7 +2689,7 @@
         <v>58.580002</v>
       </c>
       <c r="F90" t="n">
-        <v>57.73867</v>
+        <v>57.738667</v>
       </c>
       <c r="G90" t="n">
         <v>2071800</v>
@@ -2789,7 +2789,7 @@
         <v>58.450001</v>
       </c>
       <c r="F94" t="n">
-        <v>57.610531</v>
+        <v>57.610535</v>
       </c>
       <c r="G94" t="n">
         <v>2691000</v>
@@ -2839,7 +2839,7 @@
         <v>58.27</v>
       </c>
       <c r="F96" t="n">
-        <v>57.433121</v>
+        <v>57.433125</v>
       </c>
       <c r="G96" t="n">
         <v>2668400</v>
@@ -2864,7 +2864,7 @@
         <v>58.240002</v>
       </c>
       <c r="F97" t="n">
-        <v>57.403545</v>
+        <v>57.403553</v>
       </c>
       <c r="G97" t="n">
         <v>2547700</v>
@@ -2889,7 +2889,7 @@
         <v>58.220001</v>
       </c>
       <c r="F98" t="n">
-        <v>57.383842</v>
+        <v>57.383839</v>
       </c>
       <c r="G98" t="n">
         <v>2698700</v>
@@ -2914,7 +2914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F99" t="n">
-        <v>57.383842</v>
+        <v>57.383839</v>
       </c>
       <c r="G99" t="n">
         <v>2177500</v>
@@ -2939,7 +2939,7 @@
         <v>58.130001</v>
       </c>
       <c r="F100" t="n">
-        <v>57.295132</v>
+        <v>57.295135</v>
       </c>
       <c r="G100" t="n">
         <v>5925100</v>
@@ -2964,7 +2964,7 @@
         <v>58.009998</v>
       </c>
       <c r="F101" t="n">
-        <v>57.176853</v>
+        <v>57.176849</v>
       </c>
       <c r="G101" t="n">
         <v>3509300</v>
@@ -3014,7 +3014,7 @@
         <v>58.110001</v>
       </c>
       <c r="F103" t="n">
-        <v>57.275417</v>
+        <v>57.275421</v>
       </c>
       <c r="G103" t="n">
         <v>2152300</v>
@@ -3039,7 +3039,7 @@
         <v>58.16</v>
       </c>
       <c r="F104" t="n">
-        <v>57.324699</v>
+        <v>57.324696</v>
       </c>
       <c r="G104" t="n">
         <v>3918100</v>
@@ -3114,7 +3114,7 @@
         <v>57.970001</v>
       </c>
       <c r="F107" t="n">
-        <v>57.287151</v>
+        <v>57.287148</v>
       </c>
       <c r="G107" t="n">
         <v>1480100</v>
@@ -3139,7 +3139,7 @@
         <v>57.93</v>
       </c>
       <c r="F108" t="n">
-        <v>57.247623</v>
+        <v>57.24762</v>
       </c>
       <c r="G108" t="n">
         <v>2396100</v>
@@ -3164,7 +3164,7 @@
         <v>57.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>57.198212</v>
+        <v>57.198208</v>
       </c>
       <c r="G109" t="n">
         <v>2428900</v>
@@ -3189,7 +3189,7 @@
         <v>57.959999</v>
       </c>
       <c r="F110" t="n">
-        <v>57.277267</v>
+        <v>57.277264</v>
       </c>
       <c r="G110" t="n">
         <v>1710100</v>
@@ -3214,7 +3214,7 @@
         <v>57.880001</v>
       </c>
       <c r="F111" t="n">
-        <v>57.198212</v>
+        <v>57.198208</v>
       </c>
       <c r="G111" t="n">
         <v>1852100</v>
@@ -3239,7 +3239,7 @@
         <v>57.919998</v>
       </c>
       <c r="F112" t="n">
-        <v>57.237736</v>
+        <v>57.23774</v>
       </c>
       <c r="G112" t="n">
         <v>1735600</v>
@@ -3264,7 +3264,7 @@
         <v>57.82</v>
       </c>
       <c r="F113" t="n">
-        <v>57.13892</v>
+        <v>57.138916</v>
       </c>
       <c r="G113" t="n">
         <v>2290700</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.217972</v>
+        <v>57.217976</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3339,7 +3339,7 @@
         <v>57.82</v>
       </c>
       <c r="F116" t="n">
-        <v>57.13892</v>
+        <v>57.138916</v>
       </c>
       <c r="G116" t="n">
         <v>3299100</v>
@@ -3414,7 +3414,7 @@
         <v>57.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>57.119148</v>
+        <v>57.119144</v>
       </c>
       <c r="G119" t="n">
         <v>1973800</v>
@@ -3464,7 +3464,7 @@
         <v>57.880001</v>
       </c>
       <c r="F121" t="n">
-        <v>57.198212</v>
+        <v>57.198208</v>
       </c>
       <c r="G121" t="n">
         <v>2136700</v>
@@ -3539,7 +3539,7 @@
         <v>57.720001</v>
       </c>
       <c r="F124" t="n">
-        <v>57.040096</v>
+        <v>57.040092</v>
       </c>
       <c r="G124" t="n">
         <v>2293100</v>
@@ -3564,7 +3564,7 @@
         <v>57.73</v>
       </c>
       <c r="F125" t="n">
-        <v>57.049973</v>
+        <v>57.049976</v>
       </c>
       <c r="G125" t="n">
         <v>2840200</v>
@@ -3639,7 +3639,7 @@
         <v>57.470001</v>
       </c>
       <c r="F128" t="n">
-        <v>56.94989</v>
+        <v>56.949894</v>
       </c>
       <c r="G128" t="n">
         <v>7396600</v>
@@ -3689,7 +3689,7 @@
         <v>57.610001</v>
       </c>
       <c r="F130" t="n">
-        <v>57.088627</v>
+        <v>57.088619</v>
       </c>
       <c r="G130" t="n">
         <v>3208800</v>
@@ -3714,7 +3714,7 @@
         <v>57.59</v>
       </c>
       <c r="F131" t="n">
-        <v>57.068802</v>
+        <v>57.068806</v>
       </c>
       <c r="G131" t="n">
         <v>4375100</v>
@@ -3814,7 +3814,7 @@
         <v>57.810001</v>
       </c>
       <c r="F135" t="n">
-        <v>57.286816</v>
+        <v>57.286812</v>
       </c>
       <c r="G135" t="n">
         <v>1999200</v>
@@ -3839,7 +3839,7 @@
         <v>57.799999</v>
       </c>
       <c r="F136" t="n">
-        <v>57.276905</v>
+        <v>57.276901</v>
       </c>
       <c r="G136" t="n">
         <v>1705300</v>
@@ -3864,7 +3864,7 @@
         <v>57.810001</v>
       </c>
       <c r="F137" t="n">
-        <v>57.286816</v>
+        <v>57.286812</v>
       </c>
       <c r="G137" t="n">
         <v>3121700</v>
@@ -3889,7 +3889,7 @@
         <v>57.75</v>
       </c>
       <c r="F138" t="n">
-        <v>57.22736</v>
+        <v>57.227356</v>
       </c>
       <c r="G138" t="n">
         <v>1812200</v>
@@ -3939,7 +3939,7 @@
         <v>57.689999</v>
       </c>
       <c r="F140" t="n">
-        <v>57.167896</v>
+        <v>57.1679</v>
       </c>
       <c r="G140" t="n">
         <v>2301100</v>
@@ -3964,7 +3964,7 @@
         <v>57.689999</v>
       </c>
       <c r="F141" t="n">
-        <v>57.167896</v>
+        <v>57.1679</v>
       </c>
       <c r="G141" t="n">
         <v>1930700</v>
@@ -4039,7 +4039,7 @@
         <v>57.720001</v>
       </c>
       <c r="F144" t="n">
-        <v>57.197628</v>
+        <v>57.197624</v>
       </c>
       <c r="G144" t="n">
         <v>2188000</v>
@@ -4189,7 +4189,7 @@
         <v>57.720001</v>
       </c>
       <c r="F150" t="n">
-        <v>57.367527</v>
+        <v>57.367523</v>
       </c>
       <c r="G150" t="n">
         <v>1860200</v>
@@ -4239,7 +4239,7 @@
         <v>57.720001</v>
       </c>
       <c r="F152" t="n">
-        <v>57.367527</v>
+        <v>57.367523</v>
       </c>
       <c r="G152" t="n">
         <v>1707200</v>
@@ -4614,7 +4614,7 @@
         <v>57.759998</v>
       </c>
       <c r="F167" t="n">
-        <v>57.407276</v>
+        <v>57.40728</v>
       </c>
       <c r="G167" t="n">
         <v>1719800</v>
@@ -5643,6 +5643,31 @@
       </c>
       <c r="G208" t="n">
         <v>2384800</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>57.619999</v>
+      </c>
+      <c r="C209" t="n">
+        <v>57.650002</v>
+      </c>
+      <c r="D209" t="n">
+        <v>57.610001</v>
+      </c>
+      <c r="E209" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="F209" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>5240411</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -514,7 +514,7 @@
         <v>57.93</v>
       </c>
       <c r="F3" t="n">
-        <v>56.577545</v>
+        <v>56.577549</v>
       </c>
       <c r="G3" t="n">
         <v>4448900</v>
@@ -564,7 +564,7 @@
         <v>58.07</v>
       </c>
       <c r="F5" t="n">
-        <v>56.714275</v>
+        <v>56.714272</v>
       </c>
       <c r="G5" t="n">
         <v>2536600</v>
@@ -614,7 +614,7 @@
         <v>58.099998</v>
       </c>
       <c r="F7" t="n">
-        <v>56.743572</v>
+        <v>56.743576</v>
       </c>
       <c r="G7" t="n">
         <v>2574800</v>
@@ -664,7 +664,7 @@
         <v>58.25</v>
       </c>
       <c r="F9" t="n">
-        <v>56.890079</v>
+        <v>56.890076</v>
       </c>
       <c r="G9" t="n">
         <v>2551000</v>
@@ -689,7 +689,7 @@
         <v>58.169998</v>
       </c>
       <c r="F10" t="n">
-        <v>56.811939</v>
+        <v>56.811943</v>
       </c>
       <c r="G10" t="n">
         <v>3338200</v>
@@ -739,7 +739,7 @@
         <v>58.34</v>
       </c>
       <c r="F12" t="n">
-        <v>56.977978</v>
+        <v>56.977974</v>
       </c>
       <c r="G12" t="n">
         <v>4291400</v>
@@ -764,7 +764,7 @@
         <v>58.32</v>
       </c>
       <c r="F13" t="n">
-        <v>56.958439</v>
+        <v>56.958431</v>
       </c>
       <c r="G13" t="n">
         <v>2681700</v>
@@ -789,7 +789,7 @@
         <v>58.259998</v>
       </c>
       <c r="F14" t="n">
-        <v>56.899841</v>
+        <v>56.899837</v>
       </c>
       <c r="G14" t="n">
         <v>2691900</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.841248</v>
+        <v>56.841244</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -839,7 +839,7 @@
         <v>58.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>56.860779</v>
+        <v>56.860771</v>
       </c>
       <c r="G16" t="n">
         <v>1941800</v>
@@ -864,7 +864,7 @@
         <v>58.25</v>
       </c>
       <c r="F17" t="n">
-        <v>56.890079</v>
+        <v>56.890076</v>
       </c>
       <c r="G17" t="n">
         <v>2128400</v>
@@ -889,7 +889,7 @@
         <v>58.23</v>
       </c>
       <c r="F18" t="n">
-        <v>56.870541</v>
+        <v>56.870537</v>
       </c>
       <c r="G18" t="n">
         <v>3378700</v>
@@ -914,7 +914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F19" t="n">
-        <v>56.860779</v>
+        <v>56.860771</v>
       </c>
       <c r="G19" t="n">
         <v>2692100</v>
@@ -964,7 +964,7 @@
         <v>58.25</v>
       </c>
       <c r="F21" t="n">
-        <v>56.890079</v>
+        <v>56.890076</v>
       </c>
       <c r="G21" t="n">
         <v>1925300</v>
@@ -1014,7 +1014,7 @@
         <v>58.25</v>
       </c>
       <c r="F23" t="n">
-        <v>57.012424</v>
+        <v>57.012421</v>
       </c>
       <c r="G23" t="n">
         <v>4006200</v>
@@ -1089,7 +1089,7 @@
         <v>57.91</v>
       </c>
       <c r="F26" t="n">
-        <v>56.679642</v>
+        <v>56.679638</v>
       </c>
       <c r="G26" t="n">
         <v>4547500</v>
@@ -1114,7 +1114,7 @@
         <v>57.950001</v>
       </c>
       <c r="F27" t="n">
-        <v>56.7188</v>
+        <v>56.718796</v>
       </c>
       <c r="G27" t="n">
         <v>2063900</v>
@@ -1139,7 +1139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F28" t="n">
-        <v>56.669853</v>
+        <v>56.669857</v>
       </c>
       <c r="G28" t="n">
         <v>2307100</v>
@@ -1239,7 +1239,7 @@
         <v>57.75</v>
       </c>
       <c r="F32" t="n">
-        <v>56.523045</v>
+        <v>56.523037</v>
       </c>
       <c r="G32" t="n">
         <v>2379600</v>
@@ -1289,7 +1289,7 @@
         <v>57.810001</v>
       </c>
       <c r="F34" t="n">
-        <v>56.581772</v>
+        <v>56.581768</v>
       </c>
       <c r="G34" t="n">
         <v>2509800</v>
@@ -1339,7 +1339,7 @@
         <v>57.740002</v>
       </c>
       <c r="F36" t="n">
-        <v>56.513264</v>
+        <v>56.51326</v>
       </c>
       <c r="G36" t="n">
         <v>5708400</v>
@@ -1414,7 +1414,7 @@
         <v>57.689999</v>
       </c>
       <c r="F39" t="n">
-        <v>56.464317</v>
+        <v>56.464314</v>
       </c>
       <c r="G39" t="n">
         <v>3556100</v>
@@ -1439,7 +1439,7 @@
         <v>57.689999</v>
       </c>
       <c r="F40" t="n">
-        <v>56.464317</v>
+        <v>56.464314</v>
       </c>
       <c r="G40" t="n">
         <v>3243300</v>
@@ -1489,7 +1489,7 @@
         <v>57.48</v>
       </c>
       <c r="F42" t="n">
-        <v>56.377022</v>
+        <v>56.377026</v>
       </c>
       <c r="G42" t="n">
         <v>3091200</v>
@@ -1614,7 +1614,7 @@
         <v>57.52</v>
       </c>
       <c r="F47" t="n">
-        <v>56.416267</v>
+        <v>56.416252</v>
       </c>
       <c r="G47" t="n">
         <v>4419000</v>
@@ -1639,7 +1639,7 @@
         <v>57.84</v>
       </c>
       <c r="F48" t="n">
-        <v>56.730114</v>
+        <v>56.730122</v>
       </c>
       <c r="G48" t="n">
         <v>5449300</v>
@@ -1664,7 +1664,7 @@
         <v>58.41</v>
       </c>
       <c r="F49" t="n">
-        <v>57.289185</v>
+        <v>57.289181</v>
       </c>
       <c r="G49" t="n">
         <v>11000700</v>
@@ -1689,7 +1689,7 @@
         <v>58.200001</v>
       </c>
       <c r="F50" t="n">
-        <v>57.083214</v>
+        <v>57.08321</v>
       </c>
       <c r="G50" t="n">
         <v>7931300</v>
@@ -1764,7 +1764,7 @@
         <v>58.610001</v>
       </c>
       <c r="F53" t="n">
-        <v>57.48534</v>
+        <v>57.485348</v>
       </c>
       <c r="G53" t="n">
         <v>4941700</v>
@@ -1814,7 +1814,7 @@
         <v>58.310001</v>
       </c>
       <c r="F55" t="n">
-        <v>57.191101</v>
+        <v>57.191097</v>
       </c>
       <c r="G55" t="n">
         <v>4389300</v>
@@ -1864,7 +1864,7 @@
         <v>58.75</v>
       </c>
       <c r="F57" t="n">
-        <v>57.622654</v>
+        <v>57.622658</v>
       </c>
       <c r="G57" t="n">
         <v>2637300</v>
@@ -1889,7 +1889,7 @@
         <v>58.77</v>
       </c>
       <c r="F58" t="n">
-        <v>57.642277</v>
+        <v>57.642273</v>
       </c>
       <c r="G58" t="n">
         <v>4445000</v>
@@ -1914,7 +1914,7 @@
         <v>58.540001</v>
       </c>
       <c r="F59" t="n">
-        <v>57.416687</v>
+        <v>57.416683</v>
       </c>
       <c r="G59" t="n">
         <v>3097200</v>
@@ -1939,7 +1939,7 @@
         <v>58.470001</v>
       </c>
       <c r="F60" t="n">
-        <v>57.34803</v>
+        <v>57.348026</v>
       </c>
       <c r="G60" t="n">
         <v>3140700</v>
@@ -1964,7 +1964,7 @@
         <v>58.439999</v>
       </c>
       <c r="F61" t="n">
-        <v>57.3186</v>
+        <v>57.318607</v>
       </c>
       <c r="G61" t="n">
         <v>3070900</v>
@@ -2014,7 +2014,7 @@
         <v>58.540001</v>
       </c>
       <c r="F63" t="n">
-        <v>57.416687</v>
+        <v>57.416683</v>
       </c>
       <c r="G63" t="n">
         <v>3751300</v>
@@ -2039,7 +2039,7 @@
         <v>58.439999</v>
       </c>
       <c r="F64" t="n">
-        <v>57.458961</v>
+        <v>57.458965</v>
       </c>
       <c r="G64" t="n">
         <v>5479300</v>
@@ -2064,7 +2064,7 @@
         <v>58.59</v>
       </c>
       <c r="F65" t="n">
-        <v>57.606441</v>
+        <v>57.606449</v>
       </c>
       <c r="G65" t="n">
         <v>2264900</v>
@@ -2089,7 +2089,7 @@
         <v>58.66</v>
       </c>
       <c r="F66" t="n">
-        <v>57.675266</v>
+        <v>57.67527</v>
       </c>
       <c r="G66" t="n">
         <v>2286600</v>
@@ -2114,7 +2114,7 @@
         <v>58.630001</v>
       </c>
       <c r="F67" t="n">
-        <v>57.645779</v>
+        <v>57.645775</v>
       </c>
       <c r="G67" t="n">
         <v>2662800</v>
@@ -2139,7 +2139,7 @@
         <v>58.450001</v>
       </c>
       <c r="F68" t="n">
-        <v>57.468796</v>
+        <v>57.468792</v>
       </c>
       <c r="G68" t="n">
         <v>2468900</v>
@@ -2214,7 +2214,7 @@
         <v>58.52</v>
       </c>
       <c r="F71" t="n">
-        <v>57.537617</v>
+        <v>57.537624</v>
       </c>
       <c r="G71" t="n">
         <v>5122000</v>
@@ -2239,7 +2239,7 @@
         <v>58.41</v>
       </c>
       <c r="F72" t="n">
-        <v>57.42947</v>
+        <v>57.429466</v>
       </c>
       <c r="G72" t="n">
         <v>2517600</v>
@@ -2264,7 +2264,7 @@
         <v>58.299999</v>
       </c>
       <c r="F73" t="n">
-        <v>57.321308</v>
+        <v>57.321312</v>
       </c>
       <c r="G73" t="n">
         <v>2750400</v>
@@ -2289,7 +2289,7 @@
         <v>58.299999</v>
       </c>
       <c r="F74" t="n">
-        <v>57.321308</v>
+        <v>57.321312</v>
       </c>
       <c r="G74" t="n">
         <v>1868400</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.41964</v>
+        <v>57.419636</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2364,7 +2364,7 @@
         <v>58.360001</v>
       </c>
       <c r="F77" t="n">
-        <v>57.380306</v>
+        <v>57.38031</v>
       </c>
       <c r="G77" t="n">
         <v>2348500</v>
@@ -2389,7 +2389,7 @@
         <v>58.419998</v>
       </c>
       <c r="F78" t="n">
-        <v>57.439301</v>
+        <v>57.439297</v>
       </c>
       <c r="G78" t="n">
         <v>1471000</v>
@@ -2414,7 +2414,7 @@
         <v>58.66</v>
       </c>
       <c r="F79" t="n">
-        <v>57.675266</v>
+        <v>57.67527</v>
       </c>
       <c r="G79" t="n">
         <v>2037000</v>
@@ -2439,7 +2439,7 @@
         <v>58.580002</v>
       </c>
       <c r="F80" t="n">
-        <v>57.596611</v>
+        <v>57.596615</v>
       </c>
       <c r="G80" t="n">
         <v>2334700</v>
@@ -2489,7 +2489,7 @@
         <v>58.529999</v>
       </c>
       <c r="F82" t="n">
-        <v>57.547451</v>
+        <v>57.547447</v>
       </c>
       <c r="G82" t="n">
         <v>2723900</v>
@@ -2539,7 +2539,7 @@
         <v>58.439999</v>
       </c>
       <c r="F84" t="n">
-        <v>57.600674</v>
+        <v>57.600677</v>
       </c>
       <c r="G84" t="n">
         <v>2370500</v>
@@ -2564,7 +2564,7 @@
         <v>58.59</v>
       </c>
       <c r="F85" t="n">
-        <v>57.74852</v>
+        <v>57.748524</v>
       </c>
       <c r="G85" t="n">
         <v>2877400</v>
@@ -2589,7 +2589,7 @@
         <v>58.689999</v>
       </c>
       <c r="F86" t="n">
-        <v>57.847084</v>
+        <v>57.847092</v>
       </c>
       <c r="G86" t="n">
         <v>2551200</v>
@@ -2639,7 +2639,7 @@
         <v>58.439999</v>
       </c>
       <c r="F88" t="n">
-        <v>57.600674</v>
+        <v>57.600677</v>
       </c>
       <c r="G88" t="n">
         <v>1669900</v>
@@ -2664,7 +2664,7 @@
         <v>58.439999</v>
       </c>
       <c r="F89" t="n">
-        <v>57.600674</v>
+        <v>57.600677</v>
       </c>
       <c r="G89" t="n">
         <v>2252100</v>
@@ -2689,7 +2689,7 @@
         <v>58.580002</v>
       </c>
       <c r="F90" t="n">
-        <v>57.738667</v>
+        <v>57.73867</v>
       </c>
       <c r="G90" t="n">
         <v>2071800</v>
@@ -2714,7 +2714,7 @@
         <v>58.610001</v>
       </c>
       <c r="F91" t="n">
-        <v>57.768238</v>
+        <v>57.768242</v>
       </c>
       <c r="G91" t="n">
         <v>19278500</v>
@@ -2739,7 +2739,7 @@
         <v>58.52</v>
       </c>
       <c r="F92" t="n">
-        <v>57.679531</v>
+        <v>57.679535</v>
       </c>
       <c r="G92" t="n">
         <v>10414100</v>
@@ -2764,7 +2764,7 @@
         <v>58.52</v>
       </c>
       <c r="F93" t="n">
-        <v>57.679531</v>
+        <v>57.679535</v>
       </c>
       <c r="G93" t="n">
         <v>2076500</v>
@@ -2789,7 +2789,7 @@
         <v>58.450001</v>
       </c>
       <c r="F94" t="n">
-        <v>57.610535</v>
+        <v>57.610531</v>
       </c>
       <c r="G94" t="n">
         <v>2691000</v>
@@ -2839,7 +2839,7 @@
         <v>58.27</v>
       </c>
       <c r="F96" t="n">
-        <v>57.433125</v>
+        <v>57.433121</v>
       </c>
       <c r="G96" t="n">
         <v>2668400</v>
@@ -2864,7 +2864,7 @@
         <v>58.240002</v>
       </c>
       <c r="F97" t="n">
-        <v>57.403553</v>
+        <v>57.403549</v>
       </c>
       <c r="G97" t="n">
         <v>2547700</v>
@@ -2939,7 +2939,7 @@
         <v>58.130001</v>
       </c>
       <c r="F100" t="n">
-        <v>57.295135</v>
+        <v>57.295128</v>
       </c>
       <c r="G100" t="n">
         <v>5925100</v>
@@ -2964,7 +2964,7 @@
         <v>58.009998</v>
       </c>
       <c r="F101" t="n">
-        <v>57.176849</v>
+        <v>57.176853</v>
       </c>
       <c r="G101" t="n">
         <v>3509300</v>
@@ -3064,7 +3064,7 @@
         <v>58.110001</v>
       </c>
       <c r="F105" t="n">
-        <v>57.425499</v>
+        <v>57.425503</v>
       </c>
       <c r="G105" t="n">
         <v>4234800</v>
@@ -3114,7 +3114,7 @@
         <v>57.970001</v>
       </c>
       <c r="F107" t="n">
-        <v>57.287148</v>
+        <v>57.287151</v>
       </c>
       <c r="G107" t="n">
         <v>1480100</v>
@@ -3139,7 +3139,7 @@
         <v>57.93</v>
       </c>
       <c r="F108" t="n">
-        <v>57.24762</v>
+        <v>57.247623</v>
       </c>
       <c r="G108" t="n">
         <v>2396100</v>
@@ -3164,7 +3164,7 @@
         <v>57.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>57.198208</v>
+        <v>57.198212</v>
       </c>
       <c r="G109" t="n">
         <v>2428900</v>
@@ -3189,7 +3189,7 @@
         <v>57.959999</v>
       </c>
       <c r="F110" t="n">
-        <v>57.277264</v>
+        <v>57.277267</v>
       </c>
       <c r="G110" t="n">
         <v>1710100</v>
@@ -3214,7 +3214,7 @@
         <v>57.880001</v>
       </c>
       <c r="F111" t="n">
-        <v>57.198208</v>
+        <v>57.198212</v>
       </c>
       <c r="G111" t="n">
         <v>1852100</v>
@@ -3239,7 +3239,7 @@
         <v>57.919998</v>
       </c>
       <c r="F112" t="n">
-        <v>57.23774</v>
+        <v>57.237736</v>
       </c>
       <c r="G112" t="n">
         <v>1735600</v>
@@ -3289,7 +3289,7 @@
         <v>57.790001</v>
       </c>
       <c r="F114" t="n">
-        <v>57.109268</v>
+        <v>57.109272</v>
       </c>
       <c r="G114" t="n">
         <v>2288800</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.217976</v>
+        <v>57.217972</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3389,7 +3389,7 @@
         <v>57.84</v>
       </c>
       <c r="F118" t="n">
-        <v>57.158676</v>
+        <v>57.15868</v>
       </c>
       <c r="G118" t="n">
         <v>2394000</v>
@@ -3414,7 +3414,7 @@
         <v>57.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>57.119144</v>
+        <v>57.119148</v>
       </c>
       <c r="G119" t="n">
         <v>1973800</v>
@@ -3439,7 +3439,7 @@
         <v>57.84</v>
       </c>
       <c r="F120" t="n">
-        <v>57.158676</v>
+        <v>57.15868</v>
       </c>
       <c r="G120" t="n">
         <v>1682800</v>
@@ -3464,7 +3464,7 @@
         <v>57.880001</v>
       </c>
       <c r="F121" t="n">
-        <v>57.198208</v>
+        <v>57.198212</v>
       </c>
       <c r="G121" t="n">
         <v>2136700</v>
@@ -3489,7 +3489,7 @@
         <v>57.790001</v>
       </c>
       <c r="F122" t="n">
-        <v>57.109268</v>
+        <v>57.109272</v>
       </c>
       <c r="G122" t="n">
         <v>3263600</v>
@@ -3539,7 +3539,7 @@
         <v>57.720001</v>
       </c>
       <c r="F124" t="n">
-        <v>57.040092</v>
+        <v>57.040096</v>
       </c>
       <c r="G124" t="n">
         <v>2293100</v>
@@ -3564,7 +3564,7 @@
         <v>57.73</v>
       </c>
       <c r="F125" t="n">
-        <v>57.049976</v>
+        <v>57.049973</v>
       </c>
       <c r="G125" t="n">
         <v>2840200</v>
@@ -3639,7 +3639,7 @@
         <v>57.470001</v>
       </c>
       <c r="F128" t="n">
-        <v>56.949894</v>
+        <v>56.94989</v>
       </c>
       <c r="G128" t="n">
         <v>7396600</v>
@@ -3689,7 +3689,7 @@
         <v>57.610001</v>
       </c>
       <c r="F130" t="n">
-        <v>57.088619</v>
+        <v>57.088627</v>
       </c>
       <c r="G130" t="n">
         <v>3208800</v>
@@ -3714,7 +3714,7 @@
         <v>57.59</v>
       </c>
       <c r="F131" t="n">
-        <v>57.068806</v>
+        <v>57.068802</v>
       </c>
       <c r="G131" t="n">
         <v>4375100</v>
@@ -3814,7 +3814,7 @@
         <v>57.810001</v>
       </c>
       <c r="F135" t="n">
-        <v>57.286812</v>
+        <v>57.286816</v>
       </c>
       <c r="G135" t="n">
         <v>1999200</v>
@@ -3839,7 +3839,7 @@
         <v>57.799999</v>
       </c>
       <c r="F136" t="n">
-        <v>57.276901</v>
+        <v>57.276905</v>
       </c>
       <c r="G136" t="n">
         <v>1705300</v>
@@ -3864,7 +3864,7 @@
         <v>57.810001</v>
       </c>
       <c r="F137" t="n">
-        <v>57.286812</v>
+        <v>57.286816</v>
       </c>
       <c r="G137" t="n">
         <v>3121700</v>
@@ -3889,7 +3889,7 @@
         <v>57.75</v>
       </c>
       <c r="F138" t="n">
-        <v>57.227356</v>
+        <v>57.22736</v>
       </c>
       <c r="G138" t="n">
         <v>1812200</v>
@@ -3939,7 +3939,7 @@
         <v>57.689999</v>
       </c>
       <c r="F140" t="n">
-        <v>57.1679</v>
+        <v>57.167896</v>
       </c>
       <c r="G140" t="n">
         <v>2301100</v>
@@ -3964,7 +3964,7 @@
         <v>57.689999</v>
       </c>
       <c r="F141" t="n">
-        <v>57.1679</v>
+        <v>57.167896</v>
       </c>
       <c r="G141" t="n">
         <v>1930700</v>
@@ -4039,7 +4039,7 @@
         <v>57.720001</v>
       </c>
       <c r="F144" t="n">
-        <v>57.197624</v>
+        <v>57.197628</v>
       </c>
       <c r="G144" t="n">
         <v>2188000</v>
@@ -4189,7 +4189,7 @@
         <v>57.720001</v>
       </c>
       <c r="F150" t="n">
-        <v>57.367523</v>
+        <v>57.367527</v>
       </c>
       <c r="G150" t="n">
         <v>1860200</v>
@@ -4239,7 +4239,7 @@
         <v>57.720001</v>
       </c>
       <c r="F152" t="n">
-        <v>57.367523</v>
+        <v>57.367527</v>
       </c>
       <c r="G152" t="n">
         <v>1707200</v>
@@ -4614,7 +4614,7 @@
         <v>57.759998</v>
       </c>
       <c r="F167" t="n">
-        <v>57.40728</v>
+        <v>57.407276</v>
       </c>
       <c r="G167" t="n">
         <v>1719800</v>
@@ -5667,7 +5667,7 @@
         <v>57.630001</v>
       </c>
       <c r="G209" t="n">
-        <v>5240411</v>
+        <v>5240500</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>57.860001</v>
       </c>
       <c r="F2" t="n">
-        <v>56.509178</v>
+        <v>56.327747</v>
       </c>
       <c r="G2" t="n">
         <v>6806600</v>
@@ -514,7 +514,7 @@
         <v>57.93</v>
       </c>
       <c r="F3" t="n">
-        <v>56.577549</v>
+        <v>56.395897</v>
       </c>
       <c r="G3" t="n">
         <v>4448900</v>
@@ -539,7 +539,7 @@
         <v>57.860001</v>
       </c>
       <c r="F4" t="n">
-        <v>56.509178</v>
+        <v>56.327747</v>
       </c>
       <c r="G4" t="n">
         <v>3549300</v>
@@ -564,7 +564,7 @@
         <v>58.07</v>
       </c>
       <c r="F5" t="n">
-        <v>56.714272</v>
+        <v>56.532188</v>
       </c>
       <c r="G5" t="n">
         <v>2536600</v>
@@ -589,7 +589,7 @@
         <v>58.130001</v>
       </c>
       <c r="F6" t="n">
-        <v>56.772877</v>
+        <v>56.590595</v>
       </c>
       <c r="G6" t="n">
         <v>2351600</v>
@@ -614,7 +614,7 @@
         <v>58.099998</v>
       </c>
       <c r="F7" t="n">
-        <v>56.743576</v>
+        <v>56.561386</v>
       </c>
       <c r="G7" t="n">
         <v>2574800</v>
@@ -639,7 +639,7 @@
         <v>58.130001</v>
       </c>
       <c r="F8" t="n">
-        <v>56.772877</v>
+        <v>56.590595</v>
       </c>
       <c r="G8" t="n">
         <v>6069500</v>
@@ -664,7 +664,7 @@
         <v>58.25</v>
       </c>
       <c r="F9" t="n">
-        <v>56.890076</v>
+        <v>56.707417</v>
       </c>
       <c r="G9" t="n">
         <v>2551000</v>
@@ -689,7 +689,7 @@
         <v>58.169998</v>
       </c>
       <c r="F10" t="n">
-        <v>56.811943</v>
+        <v>56.629536</v>
       </c>
       <c r="G10" t="n">
         <v>3338200</v>
@@ -714,7 +714,7 @@
         <v>58.189999</v>
       </c>
       <c r="F11" t="n">
-        <v>56.831474</v>
+        <v>56.649006</v>
       </c>
       <c r="G11" t="n">
         <v>3215300</v>
@@ -739,7 +739,7 @@
         <v>58.34</v>
       </c>
       <c r="F12" t="n">
-        <v>56.977974</v>
+        <v>56.795036</v>
       </c>
       <c r="G12" t="n">
         <v>4291400</v>
@@ -764,7 +764,7 @@
         <v>58.32</v>
       </c>
       <c r="F13" t="n">
-        <v>56.958431</v>
+        <v>56.775558</v>
       </c>
       <c r="G13" t="n">
         <v>2681700</v>
@@ -789,7 +789,7 @@
         <v>58.259998</v>
       </c>
       <c r="F14" t="n">
-        <v>56.899837</v>
+        <v>56.717152</v>
       </c>
       <c r="G14" t="n">
         <v>2691900</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.841244</v>
+        <v>56.658737</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -839,7 +839,7 @@
         <v>58.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>56.860771</v>
+        <v>56.678215</v>
       </c>
       <c r="G16" t="n">
         <v>1941800</v>
@@ -864,7 +864,7 @@
         <v>58.25</v>
       </c>
       <c r="F17" t="n">
-        <v>56.890076</v>
+        <v>56.707417</v>
       </c>
       <c r="G17" t="n">
         <v>2128400</v>
@@ -889,7 +889,7 @@
         <v>58.23</v>
       </c>
       <c r="F18" t="n">
-        <v>56.870537</v>
+        <v>56.687943</v>
       </c>
       <c r="G18" t="n">
         <v>3378700</v>
@@ -914,7 +914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F19" t="n">
-        <v>56.860771</v>
+        <v>56.678215</v>
       </c>
       <c r="G19" t="n">
         <v>2692100</v>
@@ -939,7 +939,7 @@
         <v>58.16</v>
       </c>
       <c r="F20" t="n">
-        <v>56.80217</v>
+        <v>56.619801</v>
       </c>
       <c r="G20" t="n">
         <v>4835000</v>
@@ -964,7 +964,7 @@
         <v>58.25</v>
       </c>
       <c r="F21" t="n">
-        <v>56.890076</v>
+        <v>56.707417</v>
       </c>
       <c r="G21" t="n">
         <v>1925300</v>
@@ -989,7 +989,7 @@
         <v>58.240002</v>
       </c>
       <c r="F22" t="n">
-        <v>57.002636</v>
+        <v>56.819618</v>
       </c>
       <c r="G22" t="n">
         <v>4769800</v>
@@ -1014,7 +1014,7 @@
         <v>58.25</v>
       </c>
       <c r="F23" t="n">
-        <v>57.012421</v>
+        <v>56.829372</v>
       </c>
       <c r="G23" t="n">
         <v>4006200</v>
@@ -1039,7 +1039,7 @@
         <v>58.060001</v>
       </c>
       <c r="F24" t="n">
-        <v>56.826462</v>
+        <v>56.644005</v>
       </c>
       <c r="G24" t="n">
         <v>3923500</v>
@@ -1064,7 +1064,7 @@
         <v>57.869999</v>
       </c>
       <c r="F25" t="n">
-        <v>56.640495</v>
+        <v>56.458633</v>
       </c>
       <c r="G25" t="n">
         <v>6606400</v>
@@ -1089,7 +1089,7 @@
         <v>57.91</v>
       </c>
       <c r="F26" t="n">
-        <v>56.679638</v>
+        <v>56.497662</v>
       </c>
       <c r="G26" t="n">
         <v>4547500</v>
@@ -1114,7 +1114,7 @@
         <v>57.950001</v>
       </c>
       <c r="F27" t="n">
-        <v>56.718796</v>
+        <v>56.536686</v>
       </c>
       <c r="G27" t="n">
         <v>2063900</v>
@@ -1139,7 +1139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F28" t="n">
-        <v>56.669857</v>
+        <v>56.487911</v>
       </c>
       <c r="G28" t="n">
         <v>2307100</v>
@@ -1164,7 +1164,7 @@
         <v>57.869999</v>
       </c>
       <c r="F29" t="n">
-        <v>56.640495</v>
+        <v>56.458633</v>
       </c>
       <c r="G29" t="n">
         <v>2844700</v>
@@ -1189,7 +1189,7 @@
         <v>57.849998</v>
       </c>
       <c r="F30" t="n">
-        <v>56.620914</v>
+        <v>56.439125</v>
       </c>
       <c r="G30" t="n">
         <v>2826200</v>
@@ -1214,7 +1214,7 @@
         <v>57.77</v>
       </c>
       <c r="F31" t="n">
-        <v>56.542618</v>
+        <v>56.361084</v>
       </c>
       <c r="G31" t="n">
         <v>2827500</v>
@@ -1239,7 +1239,7 @@
         <v>57.75</v>
       </c>
       <c r="F32" t="n">
-        <v>56.523037</v>
+        <v>56.341564</v>
       </c>
       <c r="G32" t="n">
         <v>2379600</v>
@@ -1264,7 +1264,7 @@
         <v>57.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>56.552406</v>
+        <v>56.370831</v>
       </c>
       <c r="G33" t="n">
         <v>4369300</v>
@@ -1289,7 +1289,7 @@
         <v>57.810001</v>
       </c>
       <c r="F34" t="n">
-        <v>56.581768</v>
+        <v>56.400101</v>
       </c>
       <c r="G34" t="n">
         <v>2509800</v>
@@ -1314,7 +1314,7 @@
         <v>57.720001</v>
       </c>
       <c r="F35" t="n">
-        <v>56.493679</v>
+        <v>56.312294</v>
       </c>
       <c r="G35" t="n">
         <v>2876700</v>
@@ -1339,7 +1339,7 @@
         <v>57.740002</v>
       </c>
       <c r="F36" t="n">
-        <v>56.51326</v>
+        <v>56.331814</v>
       </c>
       <c r="G36" t="n">
         <v>5708400</v>
@@ -1364,7 +1364,7 @@
         <v>57.759998</v>
       </c>
       <c r="F37" t="n">
-        <v>56.532829</v>
+        <v>56.351322</v>
       </c>
       <c r="G37" t="n">
         <v>2827500</v>
@@ -1389,7 +1389,7 @@
         <v>57.650002</v>
       </c>
       <c r="F38" t="n">
-        <v>56.425167</v>
+        <v>56.244003</v>
       </c>
       <c r="G38" t="n">
         <v>3449300</v>
@@ -1414,7 +1414,7 @@
         <v>57.689999</v>
       </c>
       <c r="F39" t="n">
-        <v>56.464314</v>
+        <v>56.283024</v>
       </c>
       <c r="G39" t="n">
         <v>3556100</v>
@@ -1439,7 +1439,7 @@
         <v>57.689999</v>
       </c>
       <c r="F40" t="n">
-        <v>56.464314</v>
+        <v>56.283024</v>
       </c>
       <c r="G40" t="n">
         <v>3243300</v>
@@ -1464,7 +1464,7 @@
         <v>57.470001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.367218</v>
+        <v>56.186249</v>
       </c>
       <c r="G41" t="n">
         <v>3318800</v>
@@ -1489,7 +1489,7 @@
         <v>57.48</v>
       </c>
       <c r="F42" t="n">
-        <v>56.377026</v>
+        <v>56.196018</v>
       </c>
       <c r="G42" t="n">
         <v>3091200</v>
@@ -1514,7 +1514,7 @@
         <v>57.509998</v>
       </c>
       <c r="F43" t="n">
-        <v>56.406448</v>
+        <v>56.225342</v>
       </c>
       <c r="G43" t="n">
         <v>2867800</v>
@@ -1539,7 +1539,7 @@
         <v>57.5</v>
       </c>
       <c r="F44" t="n">
-        <v>56.396641</v>
+        <v>56.215572</v>
       </c>
       <c r="G44" t="n">
         <v>2549000</v>
@@ -1564,7 +1564,7 @@
         <v>57.360001</v>
       </c>
       <c r="F45" t="n">
-        <v>56.259331</v>
+        <v>56.078697</v>
       </c>
       <c r="G45" t="n">
         <v>3761900</v>
@@ -1589,7 +1589,7 @@
         <v>57.32</v>
       </c>
       <c r="F46" t="n">
-        <v>56.220097</v>
+        <v>56.039593</v>
       </c>
       <c r="G46" t="n">
         <v>3932200</v>
@@ -1614,7 +1614,7 @@
         <v>57.52</v>
       </c>
       <c r="F47" t="n">
-        <v>56.416252</v>
+        <v>56.235123</v>
       </c>
       <c r="G47" t="n">
         <v>4419000</v>
@@ -1639,7 +1639,7 @@
         <v>57.84</v>
       </c>
       <c r="F48" t="n">
-        <v>56.730122</v>
+        <v>56.547981</v>
       </c>
       <c r="G48" t="n">
         <v>5449300</v>
@@ -1664,7 +1664,7 @@
         <v>58.41</v>
       </c>
       <c r="F49" t="n">
-        <v>57.289181</v>
+        <v>57.105244</v>
       </c>
       <c r="G49" t="n">
         <v>11000700</v>
@@ -1689,7 +1689,7 @@
         <v>58.200001</v>
       </c>
       <c r="F50" t="n">
-        <v>57.08321</v>
+        <v>56.899937</v>
       </c>
       <c r="G50" t="n">
         <v>7931300</v>
@@ -1714,7 +1714,7 @@
         <v>58.529999</v>
       </c>
       <c r="F51" t="n">
-        <v>57.406876</v>
+        <v>57.222561</v>
       </c>
       <c r="G51" t="n">
         <v>8773600</v>
@@ -1739,7 +1739,7 @@
         <v>58.299999</v>
       </c>
       <c r="F52" t="n">
-        <v>57.18129</v>
+        <v>56.9977</v>
       </c>
       <c r="G52" t="n">
         <v>5213100</v>
@@ -1764,7 +1764,7 @@
         <v>58.610001</v>
       </c>
       <c r="F53" t="n">
-        <v>57.485348</v>
+        <v>57.300781</v>
       </c>
       <c r="G53" t="n">
         <v>4941700</v>
@@ -1789,7 +1789,7 @@
         <v>58.529999</v>
       </c>
       <c r="F54" t="n">
-        <v>57.406876</v>
+        <v>57.222561</v>
       </c>
       <c r="G54" t="n">
         <v>3738700</v>
@@ -1814,7 +1814,7 @@
         <v>58.310001</v>
       </c>
       <c r="F55" t="n">
-        <v>57.191097</v>
+        <v>57.007481</v>
       </c>
       <c r="G55" t="n">
         <v>4389300</v>
@@ -1839,7 +1839,7 @@
         <v>58.57</v>
       </c>
       <c r="F56" t="n">
-        <v>57.44611</v>
+        <v>57.261665</v>
       </c>
       <c r="G56" t="n">
         <v>4934700</v>
@@ -1864,7 +1864,7 @@
         <v>58.75</v>
       </c>
       <c r="F57" t="n">
-        <v>57.622658</v>
+        <v>57.437649</v>
       </c>
       <c r="G57" t="n">
         <v>2637300</v>
@@ -1889,7 +1889,7 @@
         <v>58.77</v>
       </c>
       <c r="F58" t="n">
-        <v>57.642273</v>
+        <v>57.457199</v>
       </c>
       <c r="G58" t="n">
         <v>4445000</v>
@@ -1914,7 +1914,7 @@
         <v>58.540001</v>
       </c>
       <c r="F59" t="n">
-        <v>57.416683</v>
+        <v>57.232342</v>
       </c>
       <c r="G59" t="n">
         <v>3097200</v>
@@ -1939,7 +1939,7 @@
         <v>58.470001</v>
       </c>
       <c r="F60" t="n">
-        <v>57.348026</v>
+        <v>57.163906</v>
       </c>
       <c r="G60" t="n">
         <v>3140700</v>
@@ -1964,7 +1964,7 @@
         <v>58.439999</v>
       </c>
       <c r="F61" t="n">
-        <v>57.318607</v>
+        <v>57.134575</v>
       </c>
       <c r="G61" t="n">
         <v>3070900</v>
@@ -1989,7 +1989,7 @@
         <v>58.450001</v>
       </c>
       <c r="F62" t="n">
-        <v>57.328411</v>
+        <v>57.144352</v>
       </c>
       <c r="G62" t="n">
         <v>2212800</v>
@@ -2014,7 +2014,7 @@
         <v>58.540001</v>
       </c>
       <c r="F63" t="n">
-        <v>57.416683</v>
+        <v>57.232342</v>
       </c>
       <c r="G63" t="n">
         <v>3751300</v>
@@ -2039,7 +2039,7 @@
         <v>58.439999</v>
       </c>
       <c r="F64" t="n">
-        <v>57.458965</v>
+        <v>57.274479</v>
       </c>
       <c r="G64" t="n">
         <v>5479300</v>
@@ -2064,7 +2064,7 @@
         <v>58.59</v>
       </c>
       <c r="F65" t="n">
-        <v>57.606449</v>
+        <v>57.421494</v>
       </c>
       <c r="G65" t="n">
         <v>2264900</v>
@@ -2089,7 +2089,7 @@
         <v>58.66</v>
       </c>
       <c r="F66" t="n">
-        <v>57.67527</v>
+        <v>57.490093</v>
       </c>
       <c r="G66" t="n">
         <v>2286600</v>
@@ -2114,7 +2114,7 @@
         <v>58.630001</v>
       </c>
       <c r="F67" t="n">
-        <v>57.645775</v>
+        <v>57.460693</v>
       </c>
       <c r="G67" t="n">
         <v>2662800</v>
@@ -2139,7 +2139,7 @@
         <v>58.450001</v>
       </c>
       <c r="F68" t="n">
-        <v>57.468792</v>
+        <v>57.284286</v>
       </c>
       <c r="G68" t="n">
         <v>2468900</v>
@@ -2164,7 +2164,7 @@
         <v>58.43</v>
       </c>
       <c r="F69" t="n">
-        <v>57.449135</v>
+        <v>57.264687</v>
       </c>
       <c r="G69" t="n">
         <v>3294500</v>
@@ -2189,7 +2189,7 @@
         <v>58.5</v>
       </c>
       <c r="F70" t="n">
-        <v>57.51796</v>
+        <v>57.333286</v>
       </c>
       <c r="G70" t="n">
         <v>4313600</v>
@@ -2214,7 +2214,7 @@
         <v>58.52</v>
       </c>
       <c r="F71" t="n">
-        <v>57.537624</v>
+        <v>57.35289</v>
       </c>
       <c r="G71" t="n">
         <v>5122000</v>
@@ -2239,7 +2239,7 @@
         <v>58.41</v>
       </c>
       <c r="F72" t="n">
-        <v>57.429466</v>
+        <v>57.245075</v>
       </c>
       <c r="G72" t="n">
         <v>2517600</v>
@@ -2264,7 +2264,7 @@
         <v>58.299999</v>
       </c>
       <c r="F73" t="n">
-        <v>57.321312</v>
+        <v>57.137272</v>
       </c>
       <c r="G73" t="n">
         <v>2750400</v>
@@ -2289,7 +2289,7 @@
         <v>58.299999</v>
       </c>
       <c r="F74" t="n">
-        <v>57.321312</v>
+        <v>57.137272</v>
       </c>
       <c r="G74" t="n">
         <v>1868400</v>
@@ -2314,7 +2314,7 @@
         <v>58.259998</v>
       </c>
       <c r="F75" t="n">
-        <v>57.281986</v>
+        <v>57.098072</v>
       </c>
       <c r="G75" t="n">
         <v>1666600</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.419636</v>
+        <v>57.235279</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2364,7 +2364,7 @@
         <v>58.360001</v>
       </c>
       <c r="F77" t="n">
-        <v>57.38031</v>
+        <v>57.196079</v>
       </c>
       <c r="G77" t="n">
         <v>2348500</v>
@@ -2389,7 +2389,7 @@
         <v>58.419998</v>
       </c>
       <c r="F78" t="n">
-        <v>57.439297</v>
+        <v>57.254879</v>
       </c>
       <c r="G78" t="n">
         <v>1471000</v>
@@ -2414,7 +2414,7 @@
         <v>58.66</v>
       </c>
       <c r="F79" t="n">
-        <v>57.67527</v>
+        <v>57.490093</v>
       </c>
       <c r="G79" t="n">
         <v>2037000</v>
@@ -2439,7 +2439,7 @@
         <v>58.580002</v>
       </c>
       <c r="F80" t="n">
-        <v>57.596615</v>
+        <v>57.41169</v>
       </c>
       <c r="G80" t="n">
         <v>2334700</v>
@@ -2464,7 +2464,7 @@
         <v>58.459999</v>
       </c>
       <c r="F81" t="n">
-        <v>57.47863</v>
+        <v>57.294086</v>
       </c>
       <c r="G81" t="n">
         <v>1911900</v>
@@ -2489,7 +2489,7 @@
         <v>58.529999</v>
       </c>
       <c r="F82" t="n">
-        <v>57.547447</v>
+        <v>57.362686</v>
       </c>
       <c r="G82" t="n">
         <v>2723900</v>
@@ -2514,7 +2514,7 @@
         <v>58.259998</v>
       </c>
       <c r="F83" t="n">
-        <v>57.423264</v>
+        <v>57.238895</v>
       </c>
       <c r="G83" t="n">
         <v>1678000</v>
@@ -2539,7 +2539,7 @@
         <v>58.439999</v>
       </c>
       <c r="F84" t="n">
-        <v>57.600677</v>
+        <v>57.415741</v>
       </c>
       <c r="G84" t="n">
         <v>2370500</v>
@@ -2564,7 +2564,7 @@
         <v>58.59</v>
       </c>
       <c r="F85" t="n">
-        <v>57.748524</v>
+        <v>57.563114</v>
       </c>
       <c r="G85" t="n">
         <v>2877400</v>
@@ -2589,7 +2589,7 @@
         <v>58.689999</v>
       </c>
       <c r="F86" t="n">
-        <v>57.847092</v>
+        <v>57.661366</v>
       </c>
       <c r="G86" t="n">
         <v>2551200</v>
@@ -2614,7 +2614,7 @@
         <v>58.529999</v>
       </c>
       <c r="F87" t="n">
-        <v>57.689384</v>
+        <v>57.504162</v>
       </c>
       <c r="G87" t="n">
         <v>1626300</v>
@@ -2639,7 +2639,7 @@
         <v>58.439999</v>
       </c>
       <c r="F88" t="n">
-        <v>57.600677</v>
+        <v>57.415741</v>
       </c>
       <c r="G88" t="n">
         <v>1669900</v>
@@ -2664,7 +2664,7 @@
         <v>58.439999</v>
       </c>
       <c r="F89" t="n">
-        <v>57.600677</v>
+        <v>57.415741</v>
       </c>
       <c r="G89" t="n">
         <v>2252100</v>
@@ -2689,7 +2689,7 @@
         <v>58.580002</v>
       </c>
       <c r="F90" t="n">
-        <v>57.73867</v>
+        <v>57.553291</v>
       </c>
       <c r="G90" t="n">
         <v>2071800</v>
@@ -2714,7 +2714,7 @@
         <v>58.610001</v>
       </c>
       <c r="F91" t="n">
-        <v>57.768242</v>
+        <v>57.582767</v>
       </c>
       <c r="G91" t="n">
         <v>19278500</v>
@@ -2739,7 +2739,7 @@
         <v>58.52</v>
       </c>
       <c r="F92" t="n">
-        <v>57.679535</v>
+        <v>57.494343</v>
       </c>
       <c r="G92" t="n">
         <v>10414100</v>
@@ -2764,7 +2764,7 @@
         <v>58.52</v>
       </c>
       <c r="F93" t="n">
-        <v>57.679535</v>
+        <v>57.494343</v>
       </c>
       <c r="G93" t="n">
         <v>2076500</v>
@@ -2789,7 +2789,7 @@
         <v>58.450001</v>
       </c>
       <c r="F94" t="n">
-        <v>57.610531</v>
+        <v>57.425568</v>
       </c>
       <c r="G94" t="n">
         <v>2691000</v>
@@ -2814,7 +2814,7 @@
         <v>58.380001</v>
       </c>
       <c r="F95" t="n">
-        <v>57.541538</v>
+        <v>57.356792</v>
       </c>
       <c r="G95" t="n">
         <v>2336100</v>
@@ -2839,7 +2839,7 @@
         <v>58.27</v>
       </c>
       <c r="F96" t="n">
-        <v>57.433121</v>
+        <v>57.248726</v>
       </c>
       <c r="G96" t="n">
         <v>2668400</v>
@@ -2864,7 +2864,7 @@
         <v>58.240002</v>
       </c>
       <c r="F97" t="n">
-        <v>57.403549</v>
+        <v>57.219246</v>
       </c>
       <c r="G97" t="n">
         <v>2547700</v>
@@ -2889,7 +2889,7 @@
         <v>58.220001</v>
       </c>
       <c r="F98" t="n">
-        <v>57.383839</v>
+        <v>57.1996</v>
       </c>
       <c r="G98" t="n">
         <v>2698700</v>
@@ -2914,7 +2914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F99" t="n">
-        <v>57.383839</v>
+        <v>57.1996</v>
       </c>
       <c r="G99" t="n">
         <v>2177500</v>
@@ -2939,7 +2939,7 @@
         <v>58.130001</v>
       </c>
       <c r="F100" t="n">
-        <v>57.295128</v>
+        <v>57.111176</v>
       </c>
       <c r="G100" t="n">
         <v>5925100</v>
@@ -2964,7 +2964,7 @@
         <v>58.009998</v>
       </c>
       <c r="F101" t="n">
-        <v>57.176853</v>
+        <v>56.993279</v>
       </c>
       <c r="G101" t="n">
         <v>3509300</v>
@@ -2989,7 +2989,7 @@
         <v>57.970001</v>
       </c>
       <c r="F102" t="n">
-        <v>57.137432</v>
+        <v>56.953979</v>
       </c>
       <c r="G102" t="n">
         <v>2710500</v>
@@ -3014,7 +3014,7 @@
         <v>58.110001</v>
       </c>
       <c r="F103" t="n">
-        <v>57.275421</v>
+        <v>57.091526</v>
       </c>
       <c r="G103" t="n">
         <v>2152300</v>
@@ -3039,7 +3039,7 @@
         <v>58.16</v>
       </c>
       <c r="F104" t="n">
-        <v>57.324696</v>
+        <v>57.140648</v>
       </c>
       <c r="G104" t="n">
         <v>3918100</v>
@@ -3064,7 +3064,7 @@
         <v>58.110001</v>
       </c>
       <c r="F105" t="n">
-        <v>57.425503</v>
+        <v>57.241123</v>
       </c>
       <c r="G105" t="n">
         <v>4234800</v>
@@ -3089,7 +3089,7 @@
         <v>57.939999</v>
       </c>
       <c r="F106" t="n">
-        <v>57.2575</v>
+        <v>57.073666</v>
       </c>
       <c r="G106" t="n">
         <v>3165800</v>
@@ -3114,7 +3114,7 @@
         <v>57.970001</v>
       </c>
       <c r="F107" t="n">
-        <v>57.287151</v>
+        <v>57.103218</v>
       </c>
       <c r="G107" t="n">
         <v>1480100</v>
@@ -3139,7 +3139,7 @@
         <v>57.93</v>
       </c>
       <c r="F108" t="n">
-        <v>57.247623</v>
+        <v>57.063816</v>
       </c>
       <c r="G108" t="n">
         <v>2396100</v>
@@ -3164,7 +3164,7 @@
         <v>57.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>57.198212</v>
+        <v>57.014565</v>
       </c>
       <c r="G109" t="n">
         <v>2428900</v>
@@ -3189,7 +3189,7 @@
         <v>57.959999</v>
       </c>
       <c r="F110" t="n">
-        <v>57.277267</v>
+        <v>57.093369</v>
       </c>
       <c r="G110" t="n">
         <v>1710100</v>
@@ -3214,7 +3214,7 @@
         <v>57.880001</v>
       </c>
       <c r="F111" t="n">
-        <v>57.198212</v>
+        <v>57.014565</v>
       </c>
       <c r="G111" t="n">
         <v>1852100</v>
@@ -3239,7 +3239,7 @@
         <v>57.919998</v>
       </c>
       <c r="F112" t="n">
-        <v>57.237736</v>
+        <v>57.053967</v>
       </c>
       <c r="G112" t="n">
         <v>1735600</v>
@@ -3264,7 +3264,7 @@
         <v>57.82</v>
       </c>
       <c r="F113" t="n">
-        <v>57.138916</v>
+        <v>56.955463</v>
       </c>
       <c r="G113" t="n">
         <v>2290700</v>
@@ -3289,7 +3289,7 @@
         <v>57.790001</v>
       </c>
       <c r="F114" t="n">
-        <v>57.109272</v>
+        <v>56.925911</v>
       </c>
       <c r="G114" t="n">
         <v>2288800</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.217972</v>
+        <v>57.034271</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3339,7 +3339,7 @@
         <v>57.82</v>
       </c>
       <c r="F116" t="n">
-        <v>57.138916</v>
+        <v>56.955463</v>
       </c>
       <c r="G116" t="n">
         <v>3299100</v>
@@ -3364,7 +3364,7 @@
         <v>57.860001</v>
       </c>
       <c r="F117" t="n">
-        <v>57.178444</v>
+        <v>56.994862</v>
       </c>
       <c r="G117" t="n">
         <v>1563600</v>
@@ -3389,7 +3389,7 @@
         <v>57.84</v>
       </c>
       <c r="F118" t="n">
-        <v>57.15868</v>
+        <v>56.975159</v>
       </c>
       <c r="G118" t="n">
         <v>2394000</v>
@@ -3414,7 +3414,7 @@
         <v>57.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>57.119148</v>
+        <v>56.935757</v>
       </c>
       <c r="G119" t="n">
         <v>1973800</v>
@@ -3439,7 +3439,7 @@
         <v>57.84</v>
       </c>
       <c r="F120" t="n">
-        <v>57.15868</v>
+        <v>56.975159</v>
       </c>
       <c r="G120" t="n">
         <v>1682800</v>
@@ -3464,7 +3464,7 @@
         <v>57.880001</v>
       </c>
       <c r="F121" t="n">
-        <v>57.198212</v>
+        <v>57.014565</v>
       </c>
       <c r="G121" t="n">
         <v>2136700</v>
@@ -3489,7 +3489,7 @@
         <v>57.790001</v>
       </c>
       <c r="F122" t="n">
-        <v>57.109272</v>
+        <v>56.925911</v>
       </c>
       <c r="G122" t="n">
         <v>3263600</v>
@@ -3514,7 +3514,7 @@
         <v>57.860001</v>
       </c>
       <c r="F123" t="n">
-        <v>57.178444</v>
+        <v>56.994862</v>
       </c>
       <c r="G123" t="n">
         <v>3098500</v>
@@ -3539,7 +3539,7 @@
         <v>57.720001</v>
       </c>
       <c r="F124" t="n">
-        <v>57.040096</v>
+        <v>56.856953</v>
       </c>
       <c r="G124" t="n">
         <v>2293100</v>
@@ -3564,7 +3564,7 @@
         <v>57.73</v>
       </c>
       <c r="F125" t="n">
-        <v>57.049973</v>
+        <v>56.86681</v>
       </c>
       <c r="G125" t="n">
         <v>2840200</v>
@@ -3589,7 +3589,7 @@
         <v>57.509998</v>
       </c>
       <c r="F126" t="n">
-        <v>56.989525</v>
+        <v>56.806549</v>
       </c>
       <c r="G126" t="n">
         <v>2763700</v>
@@ -3614,7 +3614,7 @@
         <v>57.509998</v>
       </c>
       <c r="F127" t="n">
-        <v>56.989525</v>
+        <v>56.806549</v>
       </c>
       <c r="G127" t="n">
         <v>3049800</v>
@@ -3639,7 +3639,7 @@
         <v>57.470001</v>
       </c>
       <c r="F128" t="n">
-        <v>56.94989</v>
+        <v>56.767048</v>
       </c>
       <c r="G128" t="n">
         <v>7396600</v>
@@ -3664,7 +3664,7 @@
         <v>57.509998</v>
       </c>
       <c r="F129" t="n">
-        <v>56.989525</v>
+        <v>56.806549</v>
       </c>
       <c r="G129" t="n">
         <v>2178900</v>
@@ -3689,7 +3689,7 @@
         <v>57.610001</v>
       </c>
       <c r="F130" t="n">
-        <v>57.088627</v>
+        <v>56.905327</v>
       </c>
       <c r="G130" t="n">
         <v>3208800</v>
@@ -3714,7 +3714,7 @@
         <v>57.59</v>
       </c>
       <c r="F131" t="n">
-        <v>57.068802</v>
+        <v>56.885578</v>
       </c>
       <c r="G131" t="n">
         <v>4375100</v>
@@ -3739,7 +3739,7 @@
         <v>57.759998</v>
       </c>
       <c r="F132" t="n">
-        <v>57.237263</v>
+        <v>57.053493</v>
       </c>
       <c r="G132" t="n">
         <v>2808100</v>
@@ -3764,7 +3764,7 @@
         <v>57.91</v>
       </c>
       <c r="F133" t="n">
-        <v>57.385906</v>
+        <v>57.20166</v>
       </c>
       <c r="G133" t="n">
         <v>2462900</v>
@@ -3789,7 +3789,7 @@
         <v>57.790001</v>
       </c>
       <c r="F134" t="n">
-        <v>57.266994</v>
+        <v>57.08313</v>
       </c>
       <c r="G134" t="n">
         <v>2117400</v>
@@ -3814,7 +3814,7 @@
         <v>57.810001</v>
       </c>
       <c r="F135" t="n">
-        <v>57.286816</v>
+        <v>57.102882</v>
       </c>
       <c r="G135" t="n">
         <v>1999200</v>
@@ -3839,7 +3839,7 @@
         <v>57.799999</v>
       </c>
       <c r="F136" t="n">
-        <v>57.276905</v>
+        <v>57.093006</v>
       </c>
       <c r="G136" t="n">
         <v>1705300</v>
@@ -3864,7 +3864,7 @@
         <v>57.810001</v>
       </c>
       <c r="F137" t="n">
-        <v>57.286816</v>
+        <v>57.102882</v>
       </c>
       <c r="G137" t="n">
         <v>3121700</v>
@@ -3889,7 +3889,7 @@
         <v>57.75</v>
       </c>
       <c r="F138" t="n">
-        <v>57.22736</v>
+        <v>57.043617</v>
       </c>
       <c r="G138" t="n">
         <v>1812200</v>
@@ -3914,7 +3914,7 @@
         <v>57.759998</v>
       </c>
       <c r="F139" t="n">
-        <v>57.237263</v>
+        <v>57.053493</v>
       </c>
       <c r="G139" t="n">
         <v>1915800</v>
@@ -3939,7 +3939,7 @@
         <v>57.689999</v>
       </c>
       <c r="F140" t="n">
-        <v>57.167896</v>
+        <v>56.984352</v>
       </c>
       <c r="G140" t="n">
         <v>2301100</v>
@@ -3964,7 +3964,7 @@
         <v>57.689999</v>
       </c>
       <c r="F141" t="n">
-        <v>57.167896</v>
+        <v>56.984352</v>
       </c>
       <c r="G141" t="n">
         <v>1930700</v>
@@ -3989,7 +3989,7 @@
         <v>57.759998</v>
       </c>
       <c r="F142" t="n">
-        <v>57.237263</v>
+        <v>57.053493</v>
       </c>
       <c r="G142" t="n">
         <v>2396300</v>
@@ -4014,7 +4014,7 @@
         <v>57.669998</v>
       </c>
       <c r="F143" t="n">
-        <v>57.148079</v>
+        <v>56.964596</v>
       </c>
       <c r="G143" t="n">
         <v>2828500</v>
@@ -4039,7 +4039,7 @@
         <v>57.720001</v>
       </c>
       <c r="F144" t="n">
-        <v>57.197628</v>
+        <v>57.013981</v>
       </c>
       <c r="G144" t="n">
         <v>2188000</v>
@@ -4064,7 +4064,7 @@
         <v>57.740002</v>
       </c>
       <c r="F145" t="n">
-        <v>57.217449</v>
+        <v>57.033745</v>
       </c>
       <c r="G145" t="n">
         <v>2034400</v>
@@ -4089,7 +4089,7 @@
         <v>57.540001</v>
       </c>
       <c r="F146" t="n">
-        <v>57.188625</v>
+        <v>57.005013</v>
       </c>
       <c r="G146" t="n">
         <v>3840800</v>
@@ -4114,7 +4114,7 @@
         <v>57.560001</v>
       </c>
       <c r="F147" t="n">
-        <v>57.208504</v>
+        <v>57.024826</v>
       </c>
       <c r="G147" t="n">
         <v>3714100</v>
@@ -4139,7 +4139,7 @@
         <v>57.580002</v>
       </c>
       <c r="F148" t="n">
-        <v>57.228382</v>
+        <v>57.04464</v>
       </c>
       <c r="G148" t="n">
         <v>1796700</v>
@@ -4164,7 +4164,7 @@
         <v>57.689999</v>
       </c>
       <c r="F149" t="n">
-        <v>57.337708</v>
+        <v>57.153614</v>
       </c>
       <c r="G149" t="n">
         <v>1960900</v>
@@ -4189,7 +4189,7 @@
         <v>57.720001</v>
       </c>
       <c r="F150" t="n">
-        <v>57.367527</v>
+        <v>57.183334</v>
       </c>
       <c r="G150" t="n">
         <v>1860200</v>
@@ -4214,7 +4214,7 @@
         <v>57.740002</v>
       </c>
       <c r="F151" t="n">
-        <v>57.387405</v>
+        <v>57.203156</v>
       </c>
       <c r="G151" t="n">
         <v>2063300</v>
@@ -4239,7 +4239,7 @@
         <v>57.720001</v>
       </c>
       <c r="F152" t="n">
-        <v>57.367527</v>
+        <v>57.183334</v>
       </c>
       <c r="G152" t="n">
         <v>1707200</v>
@@ -4264,7 +4264,7 @@
         <v>57.689999</v>
       </c>
       <c r="F153" t="n">
-        <v>57.337708</v>
+        <v>57.153614</v>
       </c>
       <c r="G153" t="n">
         <v>2246200</v>
@@ -4289,7 +4289,7 @@
         <v>57.639999</v>
       </c>
       <c r="F154" t="n">
-        <v>57.288013</v>
+        <v>57.10408</v>
       </c>
       <c r="G154" t="n">
         <v>1740200</v>
@@ -4314,7 +4314,7 @@
         <v>57.580002</v>
       </c>
       <c r="F155" t="n">
-        <v>57.228382</v>
+        <v>57.04464</v>
       </c>
       <c r="G155" t="n">
         <v>2227100</v>
@@ -4339,7 +4339,7 @@
         <v>57.610001</v>
       </c>
       <c r="F156" t="n">
-        <v>57.258198</v>
+        <v>57.07436</v>
       </c>
       <c r="G156" t="n">
         <v>1735900</v>
@@ -4364,7 +4364,7 @@
         <v>57.580002</v>
       </c>
       <c r="F157" t="n">
-        <v>57.228382</v>
+        <v>57.04464</v>
       </c>
       <c r="G157" t="n">
         <v>4034400</v>
@@ -4389,7 +4389,7 @@
         <v>57.639999</v>
       </c>
       <c r="F158" t="n">
-        <v>57.288013</v>
+        <v>57.10408</v>
       </c>
       <c r="G158" t="n">
         <v>3855200</v>
@@ -4414,7 +4414,7 @@
         <v>57.66</v>
       </c>
       <c r="F159" t="n">
-        <v>57.307892</v>
+        <v>57.123894</v>
       </c>
       <c r="G159" t="n">
         <v>1800800</v>
@@ -4439,7 +4439,7 @@
         <v>57.610001</v>
       </c>
       <c r="F160" t="n">
-        <v>57.258198</v>
+        <v>57.07436</v>
       </c>
       <c r="G160" t="n">
         <v>2142100</v>
@@ -4464,7 +4464,7 @@
         <v>57.57</v>
       </c>
       <c r="F161" t="n">
-        <v>57.218441</v>
+        <v>57.034733</v>
       </c>
       <c r="G161" t="n">
         <v>2326300</v>
@@ -4489,7 +4489,7 @@
         <v>57.66</v>
       </c>
       <c r="F162" t="n">
-        <v>57.307892</v>
+        <v>57.123894</v>
       </c>
       <c r="G162" t="n">
         <v>2462900</v>
@@ -4514,7 +4514,7 @@
         <v>57.639999</v>
       </c>
       <c r="F163" t="n">
-        <v>57.288013</v>
+        <v>57.10408</v>
       </c>
       <c r="G163" t="n">
         <v>1757200</v>
@@ -4539,7 +4539,7 @@
         <v>57.59</v>
       </c>
       <c r="F164" t="n">
-        <v>57.238319</v>
+        <v>57.054546</v>
       </c>
       <c r="G164" t="n">
         <v>1524300</v>
@@ -4564,7 +4564,7 @@
         <v>57.630001</v>
       </c>
       <c r="F165" t="n">
-        <v>57.278076</v>
+        <v>57.094177</v>
       </c>
       <c r="G165" t="n">
         <v>2406800</v>
@@ -4589,7 +4589,7 @@
         <v>57.75</v>
       </c>
       <c r="F166" t="n">
-        <v>57.397343</v>
+        <v>57.213058</v>
       </c>
       <c r="G166" t="n">
         <v>3021200</v>
@@ -4614,7 +4614,7 @@
         <v>57.759998</v>
       </c>
       <c r="F167" t="n">
-        <v>57.407276</v>
+        <v>57.222965</v>
       </c>
       <c r="G167" t="n">
         <v>1719800</v>
@@ -4639,7 +4639,7 @@
         <v>57.84</v>
       </c>
       <c r="F168" t="n">
-        <v>57.486794</v>
+        <v>57.302223</v>
       </c>
       <c r="G168" t="n">
         <v>1872600</v>
@@ -4664,7 +4664,7 @@
         <v>57.630001</v>
       </c>
       <c r="F169" t="n">
-        <v>57.450905</v>
+        <v>57.266449</v>
       </c>
       <c r="G169" t="n">
         <v>2868900</v>
@@ -4689,7 +4689,7 @@
         <v>57.549999</v>
       </c>
       <c r="F170" t="n">
-        <v>57.371155</v>
+        <v>57.186954</v>
       </c>
       <c r="G170" t="n">
         <v>2141300</v>
@@ -4714,7 +4714,7 @@
         <v>57.490002</v>
       </c>
       <c r="F171" t="n">
-        <v>57.31134</v>
+        <v>57.127335</v>
       </c>
       <c r="G171" t="n">
         <v>1557800</v>
@@ -4739,7 +4739,7 @@
         <v>57.59</v>
       </c>
       <c r="F172" t="n">
-        <v>57.41103</v>
+        <v>57.226704</v>
       </c>
       <c r="G172" t="n">
         <v>2517200</v>
@@ -4764,7 +4764,7 @@
         <v>57.57</v>
       </c>
       <c r="F173" t="n">
-        <v>57.39109</v>
+        <v>57.206825</v>
       </c>
       <c r="G173" t="n">
         <v>1733300</v>
@@ -4789,7 +4789,7 @@
         <v>57.560001</v>
       </c>
       <c r="F174" t="n">
-        <v>57.381123</v>
+        <v>57.196892</v>
       </c>
       <c r="G174" t="n">
         <v>1454000</v>
@@ -4814,7 +4814,7 @@
         <v>57.549999</v>
       </c>
       <c r="F175" t="n">
-        <v>57.371155</v>
+        <v>57.186954</v>
       </c>
       <c r="G175" t="n">
         <v>1852000</v>
@@ -4839,7 +4839,7 @@
         <v>57.59</v>
       </c>
       <c r="F176" t="n">
-        <v>57.41103</v>
+        <v>57.226704</v>
       </c>
       <c r="G176" t="n">
         <v>1304400</v>
@@ -4864,7 +4864,7 @@
         <v>57.580002</v>
       </c>
       <c r="F177" t="n">
-        <v>57.401062</v>
+        <v>57.216766</v>
       </c>
       <c r="G177" t="n">
         <v>1571200</v>
@@ -4889,7 +4889,7 @@
         <v>57.57</v>
       </c>
       <c r="F178" t="n">
-        <v>57.39109</v>
+        <v>57.206825</v>
       </c>
       <c r="G178" t="n">
         <v>2423500</v>
@@ -4914,7 +4914,7 @@
         <v>57.549999</v>
       </c>
       <c r="F179" t="n">
-        <v>57.371155</v>
+        <v>57.186954</v>
       </c>
       <c r="G179" t="n">
         <v>1401200</v>
@@ -4939,7 +4939,7 @@
         <v>57.52</v>
       </c>
       <c r="F180" t="n">
-        <v>57.341248</v>
+        <v>57.157143</v>
       </c>
       <c r="G180" t="n">
         <v>2086500</v>
@@ -4964,7 +4964,7 @@
         <v>57.48</v>
       </c>
       <c r="F181" t="n">
-        <v>57.301373</v>
+        <v>57.117397</v>
       </c>
       <c r="G181" t="n">
         <v>2200400</v>
@@ -4989,7 +4989,7 @@
         <v>57.5</v>
       </c>
       <c r="F182" t="n">
-        <v>57.321308</v>
+        <v>57.137268</v>
       </c>
       <c r="G182" t="n">
         <v>1686100</v>
@@ -5014,7 +5014,7 @@
         <v>57.549999</v>
       </c>
       <c r="F183" t="n">
-        <v>57.371155</v>
+        <v>57.186954</v>
       </c>
       <c r="G183" t="n">
         <v>1861500</v>
@@ -5039,7 +5039,7 @@
         <v>57.529999</v>
       </c>
       <c r="F184" t="n">
-        <v>57.351215</v>
+        <v>57.16708</v>
       </c>
       <c r="G184" t="n">
         <v>1567400</v>
@@ -5064,7 +5064,7 @@
         <v>57.540001</v>
       </c>
       <c r="F185" t="n">
-        <v>57.361187</v>
+        <v>57.177021</v>
       </c>
       <c r="G185" t="n">
         <v>7197200</v>
@@ -5089,7 +5089,7 @@
         <v>57.490002</v>
       </c>
       <c r="F186" t="n">
-        <v>57.31134</v>
+        <v>57.127335</v>
       </c>
       <c r="G186" t="n">
         <v>3390900</v>
@@ -5114,7 +5114,7 @@
         <v>57.59</v>
       </c>
       <c r="F187" t="n">
-        <v>57.41103</v>
+        <v>57.226704</v>
       </c>
       <c r="G187" t="n">
         <v>1535800</v>
@@ -5139,7 +5139,7 @@
         <v>57.599998</v>
       </c>
       <c r="F188" t="n">
-        <v>57.420998</v>
+        <v>57.236637</v>
       </c>
       <c r="G188" t="n">
         <v>2473900</v>
@@ -5164,7 +5164,7 @@
         <v>57.380001</v>
       </c>
       <c r="F189" t="n">
-        <v>57.380001</v>
+        <v>57.195774</v>
       </c>
       <c r="G189" t="n">
         <v>4148200</v>
@@ -5189,7 +5189,7 @@
         <v>57.34</v>
       </c>
       <c r="F190" t="n">
-        <v>57.34</v>
+        <v>57.155899</v>
       </c>
       <c r="G190" t="n">
         <v>2374900</v>
@@ -5214,7 +5214,7 @@
         <v>57.450001</v>
       </c>
       <c r="F191" t="n">
-        <v>57.450001</v>
+        <v>57.265549</v>
       </c>
       <c r="G191" t="n">
         <v>2985900</v>
@@ -5239,7 +5239,7 @@
         <v>57.509998</v>
       </c>
       <c r="F192" t="n">
-        <v>57.509998</v>
+        <v>57.325352</v>
       </c>
       <c r="G192" t="n">
         <v>2428000</v>
@@ -5264,7 +5264,7 @@
         <v>57.459999</v>
       </c>
       <c r="F193" t="n">
-        <v>57.459999</v>
+        <v>57.275513</v>
       </c>
       <c r="G193" t="n">
         <v>3104300</v>
@@ -5289,7 +5289,7 @@
         <v>57.630001</v>
       </c>
       <c r="F194" t="n">
-        <v>57.630001</v>
+        <v>57.444969</v>
       </c>
       <c r="G194" t="n">
         <v>2197100</v>
@@ -5314,7 +5314,7 @@
         <v>57.59</v>
       </c>
       <c r="F195" t="n">
-        <v>57.59</v>
+        <v>57.405098</v>
       </c>
       <c r="G195" t="n">
         <v>2959400</v>
@@ -5339,7 +5339,7 @@
         <v>57.57</v>
       </c>
       <c r="F196" t="n">
-        <v>57.57</v>
+        <v>57.385162</v>
       </c>
       <c r="G196" t="n">
         <v>2021000</v>
@@ -5364,7 +5364,7 @@
         <v>57.509998</v>
       </c>
       <c r="F197" t="n">
-        <v>57.509998</v>
+        <v>57.325352</v>
       </c>
       <c r="G197" t="n">
         <v>2170200</v>
@@ -5389,7 +5389,7 @@
         <v>57.540001</v>
       </c>
       <c r="F198" t="n">
-        <v>57.540001</v>
+        <v>57.355259</v>
       </c>
       <c r="G198" t="n">
         <v>1576200</v>
@@ -5414,7 +5414,7 @@
         <v>57.490002</v>
       </c>
       <c r="F199" t="n">
-        <v>57.490002</v>
+        <v>57.30542</v>
       </c>
       <c r="G199" t="n">
         <v>1637000</v>
@@ -5439,7 +5439,7 @@
         <v>57.380001</v>
       </c>
       <c r="F200" t="n">
-        <v>57.380001</v>
+        <v>57.195774</v>
       </c>
       <c r="G200" t="n">
         <v>1771800</v>
@@ -5464,7 +5464,7 @@
         <v>57.389999</v>
       </c>
       <c r="F201" t="n">
-        <v>57.389999</v>
+        <v>57.205738</v>
       </c>
       <c r="G201" t="n">
         <v>1997000</v>
@@ -5489,7 +5489,7 @@
         <v>57.48</v>
       </c>
       <c r="F202" t="n">
-        <v>57.48</v>
+        <v>57.295452</v>
       </c>
       <c r="G202" t="n">
         <v>2861900</v>
@@ -5514,7 +5514,7 @@
         <v>57.560001</v>
       </c>
       <c r="F203" t="n">
-        <v>57.560001</v>
+        <v>57.375195</v>
       </c>
       <c r="G203" t="n">
         <v>2065500</v>
@@ -5539,7 +5539,7 @@
         <v>57.580002</v>
       </c>
       <c r="F204" t="n">
-        <v>57.580002</v>
+        <v>57.39513</v>
       </c>
       <c r="G204" t="n">
         <v>2500100</v>
@@ -5564,7 +5564,7 @@
         <v>57.57</v>
       </c>
       <c r="F205" t="n">
-        <v>57.57</v>
+        <v>57.385162</v>
       </c>
       <c r="G205" t="n">
         <v>2465100</v>
@@ -5589,7 +5589,7 @@
         <v>57.509998</v>
       </c>
       <c r="F206" t="n">
-        <v>57.509998</v>
+        <v>57.325352</v>
       </c>
       <c r="G206" t="n">
         <v>5079300</v>
@@ -5614,7 +5614,7 @@
         <v>57.630001</v>
       </c>
       <c r="F207" t="n">
-        <v>57.630001</v>
+        <v>57.444969</v>
       </c>
       <c r="G207" t="n">
         <v>2020100</v>
@@ -5639,7 +5639,7 @@
         <v>57.66</v>
       </c>
       <c r="F208" t="n">
-        <v>57.66</v>
+        <v>57.474873</v>
       </c>
       <c r="G208" t="n">
         <v>2384800</v>
@@ -5664,10 +5664,135 @@
         <v>57.630001</v>
       </c>
       <c r="F209" t="n">
-        <v>57.630001</v>
+        <v>57.444969</v>
       </c>
       <c r="G209" t="n">
         <v>5240500</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>57.619999</v>
+      </c>
+      <c r="C210" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="D210" t="n">
+        <v>57.610001</v>
+      </c>
+      <c r="E210" t="n">
+        <v>57.619999</v>
+      </c>
+      <c r="F210" t="n">
+        <v>57.435001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2144800</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>57.450001</v>
+      </c>
+      <c r="C211" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="D211" t="n">
+        <v>57.439999</v>
+      </c>
+      <c r="E211" t="n">
+        <v>57.560001</v>
+      </c>
+      <c r="F211" t="n">
+        <v>57.560001</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4916200</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>57.610001</v>
+      </c>
+      <c r="C212" t="n">
+        <v>57.639999</v>
+      </c>
+      <c r="D212" t="n">
+        <v>57.549999</v>
+      </c>
+      <c r="E212" t="n">
+        <v>57.549999</v>
+      </c>
+      <c r="F212" t="n">
+        <v>57.549999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3129000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>57.700001</v>
+      </c>
+      <c r="C213" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="D213" t="n">
+        <v>57.650002</v>
+      </c>
+      <c r="E213" t="n">
+        <v>57.709999</v>
+      </c>
+      <c r="F213" t="n">
+        <v>57.709999</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3171000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="C214" t="n">
+        <v>57.68</v>
+      </c>
+      <c r="D214" t="n">
+        <v>57.610001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>57.610001</v>
+      </c>
+      <c r="F214" t="n">
+        <v>57.610001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4460677</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>57.860001</v>
       </c>
       <c r="F2" t="n">
-        <v>56.327747</v>
+        <v>56.327751</v>
       </c>
       <c r="G2" t="n">
         <v>6806600</v>
@@ -539,7 +539,7 @@
         <v>57.860001</v>
       </c>
       <c r="F4" t="n">
-        <v>56.327747</v>
+        <v>56.327751</v>
       </c>
       <c r="G4" t="n">
         <v>3549300</v>
@@ -589,7 +589,7 @@
         <v>58.130001</v>
       </c>
       <c r="F6" t="n">
-        <v>56.590595</v>
+        <v>56.590603</v>
       </c>
       <c r="G6" t="n">
         <v>2351600</v>
@@ -614,7 +614,7 @@
         <v>58.099998</v>
       </c>
       <c r="F7" t="n">
-        <v>56.561386</v>
+        <v>56.56139</v>
       </c>
       <c r="G7" t="n">
         <v>2574800</v>
@@ -639,7 +639,7 @@
         <v>58.130001</v>
       </c>
       <c r="F8" t="n">
-        <v>56.590595</v>
+        <v>56.590603</v>
       </c>
       <c r="G8" t="n">
         <v>6069500</v>
@@ -689,7 +689,7 @@
         <v>58.169998</v>
       </c>
       <c r="F10" t="n">
-        <v>56.629536</v>
+        <v>56.629539</v>
       </c>
       <c r="G10" t="n">
         <v>3338200</v>
@@ -714,7 +714,7 @@
         <v>58.189999</v>
       </c>
       <c r="F11" t="n">
-        <v>56.649006</v>
+        <v>56.649002</v>
       </c>
       <c r="G11" t="n">
         <v>3215300</v>
@@ -739,7 +739,7 @@
         <v>58.34</v>
       </c>
       <c r="F12" t="n">
-        <v>56.795036</v>
+        <v>56.79504</v>
       </c>
       <c r="G12" t="n">
         <v>4291400</v>
@@ -764,7 +764,7 @@
         <v>58.32</v>
       </c>
       <c r="F13" t="n">
-        <v>56.775558</v>
+        <v>56.775566</v>
       </c>
       <c r="G13" t="n">
         <v>2681700</v>
@@ -789,7 +789,7 @@
         <v>58.259998</v>
       </c>
       <c r="F14" t="n">
-        <v>56.717152</v>
+        <v>56.717155</v>
       </c>
       <c r="G14" t="n">
         <v>2691900</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.658737</v>
+        <v>56.658749</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -839,7 +839,7 @@
         <v>58.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>56.678215</v>
+        <v>56.678219</v>
       </c>
       <c r="G16" t="n">
         <v>1941800</v>
@@ -889,7 +889,7 @@
         <v>58.23</v>
       </c>
       <c r="F18" t="n">
-        <v>56.687943</v>
+        <v>56.687946</v>
       </c>
       <c r="G18" t="n">
         <v>3378700</v>
@@ -914,7 +914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F19" t="n">
-        <v>56.678215</v>
+        <v>56.678219</v>
       </c>
       <c r="G19" t="n">
         <v>2692100</v>
@@ -939,7 +939,7 @@
         <v>58.16</v>
       </c>
       <c r="F20" t="n">
-        <v>56.619801</v>
+        <v>56.619808</v>
       </c>
       <c r="G20" t="n">
         <v>4835000</v>
@@ -1064,7 +1064,7 @@
         <v>57.869999</v>
       </c>
       <c r="F25" t="n">
-        <v>56.458633</v>
+        <v>56.458641</v>
       </c>
       <c r="G25" t="n">
         <v>6606400</v>
@@ -1114,7 +1114,7 @@
         <v>57.950001</v>
       </c>
       <c r="F27" t="n">
-        <v>56.536686</v>
+        <v>56.536694</v>
       </c>
       <c r="G27" t="n">
         <v>2063900</v>
@@ -1139,7 +1139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F28" t="n">
-        <v>56.487911</v>
+        <v>56.487907</v>
       </c>
       <c r="G28" t="n">
         <v>2307100</v>
@@ -1164,7 +1164,7 @@
         <v>57.869999</v>
       </c>
       <c r="F29" t="n">
-        <v>56.458633</v>
+        <v>56.458641</v>
       </c>
       <c r="G29" t="n">
         <v>2844700</v>
@@ -1214,7 +1214,7 @@
         <v>57.77</v>
       </c>
       <c r="F31" t="n">
-        <v>56.361084</v>
+        <v>56.361076</v>
       </c>
       <c r="G31" t="n">
         <v>2827500</v>
@@ -1289,7 +1289,7 @@
         <v>57.810001</v>
       </c>
       <c r="F34" t="n">
-        <v>56.400101</v>
+        <v>56.400108</v>
       </c>
       <c r="G34" t="n">
         <v>2509800</v>
@@ -1314,7 +1314,7 @@
         <v>57.720001</v>
       </c>
       <c r="F35" t="n">
-        <v>56.312294</v>
+        <v>56.312298</v>
       </c>
       <c r="G35" t="n">
         <v>2876700</v>
@@ -1389,7 +1389,7 @@
         <v>57.650002</v>
       </c>
       <c r="F38" t="n">
-        <v>56.244003</v>
+        <v>56.243999</v>
       </c>
       <c r="G38" t="n">
         <v>3449300</v>
@@ -1414,7 +1414,7 @@
         <v>57.689999</v>
       </c>
       <c r="F39" t="n">
-        <v>56.283024</v>
+        <v>56.283028</v>
       </c>
       <c r="G39" t="n">
         <v>3556100</v>
@@ -1439,7 +1439,7 @@
         <v>57.689999</v>
       </c>
       <c r="F40" t="n">
-        <v>56.283024</v>
+        <v>56.283028</v>
       </c>
       <c r="G40" t="n">
         <v>3243300</v>
@@ -1464,7 +1464,7 @@
         <v>57.470001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.186249</v>
+        <v>56.186241</v>
       </c>
       <c r="G41" t="n">
         <v>3318800</v>
@@ -1489,7 +1489,7 @@
         <v>57.48</v>
       </c>
       <c r="F42" t="n">
-        <v>56.196018</v>
+        <v>56.196011</v>
       </c>
       <c r="G42" t="n">
         <v>3091200</v>
@@ -1564,7 +1564,7 @@
         <v>57.360001</v>
       </c>
       <c r="F45" t="n">
-        <v>56.078697</v>
+        <v>56.078693</v>
       </c>
       <c r="G45" t="n">
         <v>3761900</v>
@@ -1614,7 +1614,7 @@
         <v>57.52</v>
       </c>
       <c r="F47" t="n">
-        <v>56.235123</v>
+        <v>56.235126</v>
       </c>
       <c r="G47" t="n">
         <v>4419000</v>
@@ -1664,7 +1664,7 @@
         <v>58.41</v>
       </c>
       <c r="F49" t="n">
-        <v>57.105244</v>
+        <v>57.10524</v>
       </c>
       <c r="G49" t="n">
         <v>11000700</v>
@@ -1764,7 +1764,7 @@
         <v>58.610001</v>
       </c>
       <c r="F53" t="n">
-        <v>57.300781</v>
+        <v>57.300777</v>
       </c>
       <c r="G53" t="n">
         <v>4941700</v>
@@ -1839,7 +1839,7 @@
         <v>58.57</v>
       </c>
       <c r="F56" t="n">
-        <v>57.261665</v>
+        <v>57.261669</v>
       </c>
       <c r="G56" t="n">
         <v>4934700</v>
@@ -1864,7 +1864,7 @@
         <v>58.75</v>
       </c>
       <c r="F57" t="n">
-        <v>57.437649</v>
+        <v>57.437645</v>
       </c>
       <c r="G57" t="n">
         <v>2637300</v>
@@ -1889,7 +1889,7 @@
         <v>58.77</v>
       </c>
       <c r="F58" t="n">
-        <v>57.457199</v>
+        <v>57.457203</v>
       </c>
       <c r="G58" t="n">
         <v>4445000</v>
@@ -1914,7 +1914,7 @@
         <v>58.540001</v>
       </c>
       <c r="F59" t="n">
-        <v>57.232342</v>
+        <v>57.232346</v>
       </c>
       <c r="G59" t="n">
         <v>3097200</v>
@@ -1964,7 +1964,7 @@
         <v>58.439999</v>
       </c>
       <c r="F61" t="n">
-        <v>57.134575</v>
+        <v>57.134567</v>
       </c>
       <c r="G61" t="n">
         <v>3070900</v>
@@ -1989,7 +1989,7 @@
         <v>58.450001</v>
       </c>
       <c r="F62" t="n">
-        <v>57.144352</v>
+        <v>57.144348</v>
       </c>
       <c r="G62" t="n">
         <v>2212800</v>
@@ -2014,7 +2014,7 @@
         <v>58.540001</v>
       </c>
       <c r="F63" t="n">
-        <v>57.232342</v>
+        <v>57.232346</v>
       </c>
       <c r="G63" t="n">
         <v>3751300</v>
@@ -2064,7 +2064,7 @@
         <v>58.59</v>
       </c>
       <c r="F65" t="n">
-        <v>57.421494</v>
+        <v>57.421486</v>
       </c>
       <c r="G65" t="n">
         <v>2264900</v>
@@ -2114,7 +2114,7 @@
         <v>58.630001</v>
       </c>
       <c r="F67" t="n">
-        <v>57.460693</v>
+        <v>57.460697</v>
       </c>
       <c r="G67" t="n">
         <v>2662800</v>
@@ -2139,7 +2139,7 @@
         <v>58.450001</v>
       </c>
       <c r="F68" t="n">
-        <v>57.284286</v>
+        <v>57.284283</v>
       </c>
       <c r="G68" t="n">
         <v>2468900</v>
@@ -2214,7 +2214,7 @@
         <v>58.52</v>
       </c>
       <c r="F71" t="n">
-        <v>57.35289</v>
+        <v>57.352886</v>
       </c>
       <c r="G71" t="n">
         <v>5122000</v>
@@ -2239,7 +2239,7 @@
         <v>58.41</v>
       </c>
       <c r="F72" t="n">
-        <v>57.245075</v>
+        <v>57.245079</v>
       </c>
       <c r="G72" t="n">
         <v>2517600</v>
@@ -2314,7 +2314,7 @@
         <v>58.259998</v>
       </c>
       <c r="F75" t="n">
-        <v>57.098072</v>
+        <v>57.098076</v>
       </c>
       <c r="G75" t="n">
         <v>1666600</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.235279</v>
+        <v>57.235287</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2364,7 +2364,7 @@
         <v>58.360001</v>
       </c>
       <c r="F77" t="n">
-        <v>57.196079</v>
+        <v>57.196075</v>
       </c>
       <c r="G77" t="n">
         <v>2348500</v>
@@ -2389,7 +2389,7 @@
         <v>58.419998</v>
       </c>
       <c r="F78" t="n">
-        <v>57.254879</v>
+        <v>57.254883</v>
       </c>
       <c r="G78" t="n">
         <v>1471000</v>
@@ -2514,7 +2514,7 @@
         <v>58.259998</v>
       </c>
       <c r="F83" t="n">
-        <v>57.238895</v>
+        <v>57.238899</v>
       </c>
       <c r="G83" t="n">
         <v>1678000</v>
@@ -2539,7 +2539,7 @@
         <v>58.439999</v>
       </c>
       <c r="F84" t="n">
-        <v>57.415741</v>
+        <v>57.415737</v>
       </c>
       <c r="G84" t="n">
         <v>2370500</v>
@@ -2564,7 +2564,7 @@
         <v>58.59</v>
       </c>
       <c r="F85" t="n">
-        <v>57.563114</v>
+        <v>57.56311</v>
       </c>
       <c r="G85" t="n">
         <v>2877400</v>
@@ -2639,7 +2639,7 @@
         <v>58.439999</v>
       </c>
       <c r="F88" t="n">
-        <v>57.415741</v>
+        <v>57.415737</v>
       </c>
       <c r="G88" t="n">
         <v>1669900</v>
@@ -2664,7 +2664,7 @@
         <v>58.439999</v>
       </c>
       <c r="F89" t="n">
-        <v>57.415741</v>
+        <v>57.415737</v>
       </c>
       <c r="G89" t="n">
         <v>2252100</v>
@@ -2714,7 +2714,7 @@
         <v>58.610001</v>
       </c>
       <c r="F91" t="n">
-        <v>57.582767</v>
+        <v>57.582764</v>
       </c>
       <c r="G91" t="n">
         <v>19278500</v>
@@ -2739,7 +2739,7 @@
         <v>58.52</v>
       </c>
       <c r="F92" t="n">
-        <v>57.494343</v>
+        <v>57.494339</v>
       </c>
       <c r="G92" t="n">
         <v>10414100</v>
@@ -2764,7 +2764,7 @@
         <v>58.52</v>
       </c>
       <c r="F93" t="n">
-        <v>57.494343</v>
+        <v>57.494339</v>
       </c>
       <c r="G93" t="n">
         <v>2076500</v>
@@ -2789,7 +2789,7 @@
         <v>58.450001</v>
       </c>
       <c r="F94" t="n">
-        <v>57.425568</v>
+        <v>57.425564</v>
       </c>
       <c r="G94" t="n">
         <v>2691000</v>
@@ -2814,7 +2814,7 @@
         <v>58.380001</v>
       </c>
       <c r="F95" t="n">
-        <v>57.356792</v>
+        <v>57.356796</v>
       </c>
       <c r="G95" t="n">
         <v>2336100</v>
@@ -2839,7 +2839,7 @@
         <v>58.27</v>
       </c>
       <c r="F96" t="n">
-        <v>57.248726</v>
+        <v>57.248722</v>
       </c>
       <c r="G96" t="n">
         <v>2668400</v>
@@ -2864,7 +2864,7 @@
         <v>58.240002</v>
       </c>
       <c r="F97" t="n">
-        <v>57.219246</v>
+        <v>57.21925</v>
       </c>
       <c r="G97" t="n">
         <v>2547700</v>
@@ -2939,7 +2939,7 @@
         <v>58.130001</v>
       </c>
       <c r="F100" t="n">
-        <v>57.111176</v>
+        <v>57.111179</v>
       </c>
       <c r="G100" t="n">
         <v>5925100</v>
@@ -2964,7 +2964,7 @@
         <v>58.009998</v>
       </c>
       <c r="F101" t="n">
-        <v>56.993279</v>
+        <v>56.993275</v>
       </c>
       <c r="G101" t="n">
         <v>3509300</v>
@@ -2989,7 +2989,7 @@
         <v>57.970001</v>
       </c>
       <c r="F102" t="n">
-        <v>56.953979</v>
+        <v>56.953983</v>
       </c>
       <c r="G102" t="n">
         <v>2710500</v>
@@ -3014,7 +3014,7 @@
         <v>58.110001</v>
       </c>
       <c r="F103" t="n">
-        <v>57.091526</v>
+        <v>57.09153</v>
       </c>
       <c r="G103" t="n">
         <v>2152300</v>
@@ -3039,7 +3039,7 @@
         <v>58.16</v>
       </c>
       <c r="F104" t="n">
-        <v>57.140648</v>
+        <v>57.140652</v>
       </c>
       <c r="G104" t="n">
         <v>3918100</v>
@@ -3064,7 +3064,7 @@
         <v>58.110001</v>
       </c>
       <c r="F105" t="n">
-        <v>57.241123</v>
+        <v>57.241131</v>
       </c>
       <c r="G105" t="n">
         <v>4234800</v>
@@ -3089,7 +3089,7 @@
         <v>57.939999</v>
       </c>
       <c r="F106" t="n">
-        <v>57.073666</v>
+        <v>57.073669</v>
       </c>
       <c r="G106" t="n">
         <v>3165800</v>
@@ -3189,7 +3189,7 @@
         <v>57.959999</v>
       </c>
       <c r="F110" t="n">
-        <v>57.093369</v>
+        <v>57.093365</v>
       </c>
       <c r="G110" t="n">
         <v>1710100</v>
@@ -3239,7 +3239,7 @@
         <v>57.919998</v>
       </c>
       <c r="F112" t="n">
-        <v>57.053967</v>
+        <v>57.053963</v>
       </c>
       <c r="G112" t="n">
         <v>1735600</v>
@@ -3264,7 +3264,7 @@
         <v>57.82</v>
       </c>
       <c r="F113" t="n">
-        <v>56.955463</v>
+        <v>56.95546</v>
       </c>
       <c r="G113" t="n">
         <v>2290700</v>
@@ -3289,7 +3289,7 @@
         <v>57.790001</v>
       </c>
       <c r="F114" t="n">
-        <v>56.925911</v>
+        <v>56.925907</v>
       </c>
       <c r="G114" t="n">
         <v>2288800</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.034271</v>
+        <v>57.034267</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3339,7 +3339,7 @@
         <v>57.82</v>
       </c>
       <c r="F116" t="n">
-        <v>56.955463</v>
+        <v>56.95546</v>
       </c>
       <c r="G116" t="n">
         <v>3299100</v>
@@ -3364,7 +3364,7 @@
         <v>57.860001</v>
       </c>
       <c r="F117" t="n">
-        <v>56.994862</v>
+        <v>56.994865</v>
       </c>
       <c r="G117" t="n">
         <v>1563600</v>
@@ -3389,7 +3389,7 @@
         <v>57.84</v>
       </c>
       <c r="F118" t="n">
-        <v>56.975159</v>
+        <v>56.975163</v>
       </c>
       <c r="G118" t="n">
         <v>2394000</v>
@@ -3439,7 +3439,7 @@
         <v>57.84</v>
       </c>
       <c r="F120" t="n">
-        <v>56.975159</v>
+        <v>56.975163</v>
       </c>
       <c r="G120" t="n">
         <v>1682800</v>
@@ -3489,7 +3489,7 @@
         <v>57.790001</v>
       </c>
       <c r="F122" t="n">
-        <v>56.925911</v>
+        <v>56.925907</v>
       </c>
       <c r="G122" t="n">
         <v>3263600</v>
@@ -3514,7 +3514,7 @@
         <v>57.860001</v>
       </c>
       <c r="F123" t="n">
-        <v>56.994862</v>
+        <v>56.994865</v>
       </c>
       <c r="G123" t="n">
         <v>3098500</v>
@@ -3539,7 +3539,7 @@
         <v>57.720001</v>
       </c>
       <c r="F124" t="n">
-        <v>56.856953</v>
+        <v>56.85696</v>
       </c>
       <c r="G124" t="n">
         <v>2293100</v>
@@ -3589,7 +3589,7 @@
         <v>57.509998</v>
       </c>
       <c r="F126" t="n">
-        <v>56.806549</v>
+        <v>56.806557</v>
       </c>
       <c r="G126" t="n">
         <v>2763700</v>
@@ -3614,7 +3614,7 @@
         <v>57.509998</v>
       </c>
       <c r="F127" t="n">
-        <v>56.806549</v>
+        <v>56.806557</v>
       </c>
       <c r="G127" t="n">
         <v>3049800</v>
@@ -3639,7 +3639,7 @@
         <v>57.470001</v>
       </c>
       <c r="F128" t="n">
-        <v>56.767048</v>
+        <v>56.767044</v>
       </c>
       <c r="G128" t="n">
         <v>7396600</v>
@@ -3664,7 +3664,7 @@
         <v>57.509998</v>
       </c>
       <c r="F129" t="n">
-        <v>56.806549</v>
+        <v>56.806557</v>
       </c>
       <c r="G129" t="n">
         <v>2178900</v>
@@ -3689,7 +3689,7 @@
         <v>57.610001</v>
       </c>
       <c r="F130" t="n">
-        <v>56.905327</v>
+        <v>56.905334</v>
       </c>
       <c r="G130" t="n">
         <v>3208800</v>
@@ -3714,7 +3714,7 @@
         <v>57.59</v>
       </c>
       <c r="F131" t="n">
-        <v>56.885578</v>
+        <v>56.885574</v>
       </c>
       <c r="G131" t="n">
         <v>4375100</v>
@@ -3789,7 +3789,7 @@
         <v>57.790001</v>
       </c>
       <c r="F134" t="n">
-        <v>57.08313</v>
+        <v>57.083126</v>
       </c>
       <c r="G134" t="n">
         <v>2117400</v>
@@ -3814,7 +3814,7 @@
         <v>57.810001</v>
       </c>
       <c r="F135" t="n">
-        <v>57.102882</v>
+        <v>57.102886</v>
       </c>
       <c r="G135" t="n">
         <v>1999200</v>
@@ -3839,7 +3839,7 @@
         <v>57.799999</v>
       </c>
       <c r="F136" t="n">
-        <v>57.093006</v>
+        <v>57.093002</v>
       </c>
       <c r="G136" t="n">
         <v>1705300</v>
@@ -3864,7 +3864,7 @@
         <v>57.810001</v>
       </c>
       <c r="F137" t="n">
-        <v>57.102882</v>
+        <v>57.102886</v>
       </c>
       <c r="G137" t="n">
         <v>3121700</v>
@@ -4039,7 +4039,7 @@
         <v>57.720001</v>
       </c>
       <c r="F144" t="n">
-        <v>57.013981</v>
+        <v>57.013988</v>
       </c>
       <c r="G144" t="n">
         <v>2188000</v>
@@ -4064,7 +4064,7 @@
         <v>57.740002</v>
       </c>
       <c r="F145" t="n">
-        <v>57.033745</v>
+        <v>57.033741</v>
       </c>
       <c r="G145" t="n">
         <v>2034400</v>
@@ -4089,7 +4089,7 @@
         <v>57.540001</v>
       </c>
       <c r="F146" t="n">
-        <v>57.005013</v>
+        <v>57.005016</v>
       </c>
       <c r="G146" t="n">
         <v>3840800</v>
@@ -4189,7 +4189,7 @@
         <v>57.720001</v>
       </c>
       <c r="F150" t="n">
-        <v>57.183334</v>
+        <v>57.183342</v>
       </c>
       <c r="G150" t="n">
         <v>1860200</v>
@@ -4239,7 +4239,7 @@
         <v>57.720001</v>
       </c>
       <c r="F152" t="n">
-        <v>57.183334</v>
+        <v>57.183342</v>
       </c>
       <c r="G152" t="n">
         <v>1707200</v>
@@ -4339,7 +4339,7 @@
         <v>57.610001</v>
       </c>
       <c r="F156" t="n">
-        <v>57.07436</v>
+        <v>57.074364</v>
       </c>
       <c r="G156" t="n">
         <v>1735900</v>
@@ -4414,7 +4414,7 @@
         <v>57.66</v>
       </c>
       <c r="F159" t="n">
-        <v>57.123894</v>
+        <v>57.123898</v>
       </c>
       <c r="G159" t="n">
         <v>1800800</v>
@@ -4439,7 +4439,7 @@
         <v>57.610001</v>
       </c>
       <c r="F160" t="n">
-        <v>57.07436</v>
+        <v>57.074364</v>
       </c>
       <c r="G160" t="n">
         <v>2142100</v>
@@ -4464,7 +4464,7 @@
         <v>57.57</v>
       </c>
       <c r="F161" t="n">
-        <v>57.034733</v>
+        <v>57.034729</v>
       </c>
       <c r="G161" t="n">
         <v>2326300</v>
@@ -4489,7 +4489,7 @@
         <v>57.66</v>
       </c>
       <c r="F162" t="n">
-        <v>57.123894</v>
+        <v>57.123898</v>
       </c>
       <c r="G162" t="n">
         <v>2462900</v>
@@ -4564,7 +4564,7 @@
         <v>57.630001</v>
       </c>
       <c r="F165" t="n">
-        <v>57.094177</v>
+        <v>57.094173</v>
       </c>
       <c r="G165" t="n">
         <v>2406800</v>
@@ -4614,7 +4614,7 @@
         <v>57.759998</v>
       </c>
       <c r="F167" t="n">
-        <v>57.222965</v>
+        <v>57.222961</v>
       </c>
       <c r="G167" t="n">
         <v>1719800</v>
@@ -5792,7 +5792,57 @@
         <v>57.610001</v>
       </c>
       <c r="G214" t="n">
-        <v>4460677</v>
+        <v>4462200</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>57.639999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>57.689999</v>
+      </c>
+      <c r="D215" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="E215" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="F215" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2716700</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>57.650002</v>
+      </c>
+      <c r="C216" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="D216" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="E216" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="F216" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="G216" t="n">
+        <v>3497667</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
         <v>57.93</v>
       </c>
       <c r="F3" t="n">
-        <v>56.395897</v>
+        <v>56.395893</v>
       </c>
       <c r="G3" t="n">
         <v>4448900</v>
@@ -589,7 +589,7 @@
         <v>58.130001</v>
       </c>
       <c r="F6" t="n">
-        <v>56.590603</v>
+        <v>56.590607</v>
       </c>
       <c r="G6" t="n">
         <v>2351600</v>
@@ -614,7 +614,7 @@
         <v>58.099998</v>
       </c>
       <c r="F7" t="n">
-        <v>56.56139</v>
+        <v>56.561394</v>
       </c>
       <c r="G7" t="n">
         <v>2574800</v>
@@ -639,7 +639,7 @@
         <v>58.130001</v>
       </c>
       <c r="F8" t="n">
-        <v>56.590603</v>
+        <v>56.590607</v>
       </c>
       <c r="G8" t="n">
         <v>6069500</v>
@@ -689,7 +689,7 @@
         <v>58.169998</v>
       </c>
       <c r="F10" t="n">
-        <v>56.629539</v>
+        <v>56.629536</v>
       </c>
       <c r="G10" t="n">
         <v>3338200</v>
@@ -714,7 +714,7 @@
         <v>58.189999</v>
       </c>
       <c r="F11" t="n">
-        <v>56.649002</v>
+        <v>56.64901</v>
       </c>
       <c r="G11" t="n">
         <v>3215300</v>
@@ -789,7 +789,7 @@
         <v>58.259998</v>
       </c>
       <c r="F14" t="n">
-        <v>56.717155</v>
+        <v>56.717152</v>
       </c>
       <c r="G14" t="n">
         <v>2691900</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.658749</v>
+        <v>56.658745</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -839,7 +839,7 @@
         <v>58.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>56.678219</v>
+        <v>56.678207</v>
       </c>
       <c r="G16" t="n">
         <v>1941800</v>
@@ -889,7 +889,7 @@
         <v>58.23</v>
       </c>
       <c r="F18" t="n">
-        <v>56.687946</v>
+        <v>56.68795</v>
       </c>
       <c r="G18" t="n">
         <v>3378700</v>
@@ -914,7 +914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F19" t="n">
-        <v>56.678219</v>
+        <v>56.678207</v>
       </c>
       <c r="G19" t="n">
         <v>2692100</v>
@@ -939,7 +939,7 @@
         <v>58.16</v>
       </c>
       <c r="F20" t="n">
-        <v>56.619808</v>
+        <v>56.619801</v>
       </c>
       <c r="G20" t="n">
         <v>4835000</v>
@@ -1014,7 +1014,7 @@
         <v>58.25</v>
       </c>
       <c r="F23" t="n">
-        <v>56.829372</v>
+        <v>56.829369</v>
       </c>
       <c r="G23" t="n">
         <v>4006200</v>
@@ -1064,7 +1064,7 @@
         <v>57.869999</v>
       </c>
       <c r="F25" t="n">
-        <v>56.458641</v>
+        <v>56.458637</v>
       </c>
       <c r="G25" t="n">
         <v>6606400</v>
@@ -1114,7 +1114,7 @@
         <v>57.950001</v>
       </c>
       <c r="F27" t="n">
-        <v>56.536694</v>
+        <v>56.53669</v>
       </c>
       <c r="G27" t="n">
         <v>2063900</v>
@@ -1139,7 +1139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F28" t="n">
-        <v>56.487907</v>
+        <v>56.4879</v>
       </c>
       <c r="G28" t="n">
         <v>2307100</v>
@@ -1164,7 +1164,7 @@
         <v>57.869999</v>
       </c>
       <c r="F29" t="n">
-        <v>56.458641</v>
+        <v>56.458637</v>
       </c>
       <c r="G29" t="n">
         <v>2844700</v>
@@ -1264,7 +1264,7 @@
         <v>57.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>56.370831</v>
+        <v>56.370838</v>
       </c>
       <c r="G33" t="n">
         <v>4369300</v>
@@ -1314,7 +1314,7 @@
         <v>57.720001</v>
       </c>
       <c r="F35" t="n">
-        <v>56.312298</v>
+        <v>56.312302</v>
       </c>
       <c r="G35" t="n">
         <v>2876700</v>
@@ -1364,7 +1364,7 @@
         <v>57.759998</v>
       </c>
       <c r="F37" t="n">
-        <v>56.351322</v>
+        <v>56.351318</v>
       </c>
       <c r="G37" t="n">
         <v>2827500</v>
@@ -1389,7 +1389,7 @@
         <v>57.650002</v>
       </c>
       <c r="F38" t="n">
-        <v>56.243999</v>
+        <v>56.244007</v>
       </c>
       <c r="G38" t="n">
         <v>3449300</v>
@@ -1464,7 +1464,7 @@
         <v>57.470001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.186241</v>
+        <v>56.186245</v>
       </c>
       <c r="G41" t="n">
         <v>3318800</v>
@@ -1489,7 +1489,7 @@
         <v>57.48</v>
       </c>
       <c r="F42" t="n">
-        <v>56.196011</v>
+        <v>56.196022</v>
       </c>
       <c r="G42" t="n">
         <v>3091200</v>
@@ -1514,7 +1514,7 @@
         <v>57.509998</v>
       </c>
       <c r="F43" t="n">
-        <v>56.225342</v>
+        <v>56.225346</v>
       </c>
       <c r="G43" t="n">
         <v>2867800</v>
@@ -1564,7 +1564,7 @@
         <v>57.360001</v>
       </c>
       <c r="F45" t="n">
-        <v>56.078693</v>
+        <v>56.078701</v>
       </c>
       <c r="G45" t="n">
         <v>3761900</v>
@@ -1614,7 +1614,7 @@
         <v>57.52</v>
       </c>
       <c r="F47" t="n">
-        <v>56.235126</v>
+        <v>56.235123</v>
       </c>
       <c r="G47" t="n">
         <v>4419000</v>
@@ -1639,7 +1639,7 @@
         <v>57.84</v>
       </c>
       <c r="F48" t="n">
-        <v>56.547981</v>
+        <v>56.547977</v>
       </c>
       <c r="G48" t="n">
         <v>5449300</v>
@@ -1664,7 +1664,7 @@
         <v>58.41</v>
       </c>
       <c r="F49" t="n">
-        <v>57.10524</v>
+        <v>57.105244</v>
       </c>
       <c r="G49" t="n">
         <v>11000700</v>
@@ -1689,7 +1689,7 @@
         <v>58.200001</v>
       </c>
       <c r="F50" t="n">
-        <v>56.899937</v>
+        <v>56.899933</v>
       </c>
       <c r="G50" t="n">
         <v>7931300</v>
@@ -1714,7 +1714,7 @@
         <v>58.529999</v>
       </c>
       <c r="F51" t="n">
-        <v>57.222561</v>
+        <v>57.222569</v>
       </c>
       <c r="G51" t="n">
         <v>8773600</v>
@@ -1739,7 +1739,7 @@
         <v>58.299999</v>
       </c>
       <c r="F52" t="n">
-        <v>56.9977</v>
+        <v>56.997704</v>
       </c>
       <c r="G52" t="n">
         <v>5213100</v>
@@ -1789,7 +1789,7 @@
         <v>58.529999</v>
       </c>
       <c r="F54" t="n">
-        <v>57.222561</v>
+        <v>57.222569</v>
       </c>
       <c r="G54" t="n">
         <v>3738700</v>
@@ -1864,7 +1864,7 @@
         <v>58.75</v>
       </c>
       <c r="F57" t="n">
-        <v>57.437645</v>
+        <v>57.437653</v>
       </c>
       <c r="G57" t="n">
         <v>2637300</v>
@@ -1889,7 +1889,7 @@
         <v>58.77</v>
       </c>
       <c r="F58" t="n">
-        <v>57.457203</v>
+        <v>57.457199</v>
       </c>
       <c r="G58" t="n">
         <v>4445000</v>
@@ -1914,7 +1914,7 @@
         <v>58.540001</v>
       </c>
       <c r="F59" t="n">
-        <v>57.232346</v>
+        <v>57.232342</v>
       </c>
       <c r="G59" t="n">
         <v>3097200</v>
@@ -1964,7 +1964,7 @@
         <v>58.439999</v>
       </c>
       <c r="F61" t="n">
-        <v>57.134567</v>
+        <v>57.134571</v>
       </c>
       <c r="G61" t="n">
         <v>3070900</v>
@@ -2014,7 +2014,7 @@
         <v>58.540001</v>
       </c>
       <c r="F63" t="n">
-        <v>57.232346</v>
+        <v>57.232342</v>
       </c>
       <c r="G63" t="n">
         <v>3751300</v>
@@ -2039,7 +2039,7 @@
         <v>58.439999</v>
       </c>
       <c r="F64" t="n">
-        <v>57.274479</v>
+        <v>57.274483</v>
       </c>
       <c r="G64" t="n">
         <v>5479300</v>
@@ -2114,7 +2114,7 @@
         <v>58.630001</v>
       </c>
       <c r="F67" t="n">
-        <v>57.460697</v>
+        <v>57.460701</v>
       </c>
       <c r="G67" t="n">
         <v>2662800</v>
@@ -2164,7 +2164,7 @@
         <v>58.43</v>
       </c>
       <c r="F69" t="n">
-        <v>57.264687</v>
+        <v>57.264683</v>
       </c>
       <c r="G69" t="n">
         <v>3294500</v>
@@ -2189,7 +2189,7 @@
         <v>58.5</v>
       </c>
       <c r="F70" t="n">
-        <v>57.333286</v>
+        <v>57.33329</v>
       </c>
       <c r="G70" t="n">
         <v>4313600</v>
@@ -2214,7 +2214,7 @@
         <v>58.52</v>
       </c>
       <c r="F71" t="n">
-        <v>57.352886</v>
+        <v>57.35289</v>
       </c>
       <c r="G71" t="n">
         <v>5122000</v>
@@ -2239,7 +2239,7 @@
         <v>58.41</v>
       </c>
       <c r="F72" t="n">
-        <v>57.245079</v>
+        <v>57.245083</v>
       </c>
       <c r="G72" t="n">
         <v>2517600</v>
@@ -2264,7 +2264,7 @@
         <v>58.299999</v>
       </c>
       <c r="F73" t="n">
-        <v>57.137272</v>
+        <v>57.137276</v>
       </c>
       <c r="G73" t="n">
         <v>2750400</v>
@@ -2289,7 +2289,7 @@
         <v>58.299999</v>
       </c>
       <c r="F74" t="n">
-        <v>57.137272</v>
+        <v>57.137276</v>
       </c>
       <c r="G74" t="n">
         <v>1868400</v>
@@ -2314,7 +2314,7 @@
         <v>58.259998</v>
       </c>
       <c r="F75" t="n">
-        <v>57.098076</v>
+        <v>57.098072</v>
       </c>
       <c r="G75" t="n">
         <v>1666600</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.235287</v>
+        <v>57.235283</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2364,7 +2364,7 @@
         <v>58.360001</v>
       </c>
       <c r="F77" t="n">
-        <v>57.196075</v>
+        <v>57.196079</v>
       </c>
       <c r="G77" t="n">
         <v>2348500</v>
@@ -2389,7 +2389,7 @@
         <v>58.419998</v>
       </c>
       <c r="F78" t="n">
-        <v>57.254883</v>
+        <v>57.254879</v>
       </c>
       <c r="G78" t="n">
         <v>1471000</v>
@@ -2439,7 +2439,7 @@
         <v>58.580002</v>
       </c>
       <c r="F80" t="n">
-        <v>57.41169</v>
+        <v>57.411694</v>
       </c>
       <c r="G80" t="n">
         <v>2334700</v>
@@ -2464,7 +2464,7 @@
         <v>58.459999</v>
       </c>
       <c r="F81" t="n">
-        <v>57.294086</v>
+        <v>57.294079</v>
       </c>
       <c r="G81" t="n">
         <v>1911900</v>
@@ -2514,7 +2514,7 @@
         <v>58.259998</v>
       </c>
       <c r="F83" t="n">
-        <v>57.238899</v>
+        <v>57.238895</v>
       </c>
       <c r="G83" t="n">
         <v>1678000</v>
@@ -2539,7 +2539,7 @@
         <v>58.439999</v>
       </c>
       <c r="F84" t="n">
-        <v>57.415737</v>
+        <v>57.415741</v>
       </c>
       <c r="G84" t="n">
         <v>2370500</v>
@@ -2589,7 +2589,7 @@
         <v>58.689999</v>
       </c>
       <c r="F86" t="n">
-        <v>57.661366</v>
+        <v>57.661362</v>
       </c>
       <c r="G86" t="n">
         <v>2551200</v>
@@ -2639,7 +2639,7 @@
         <v>58.439999</v>
       </c>
       <c r="F88" t="n">
-        <v>57.415737</v>
+        <v>57.415741</v>
       </c>
       <c r="G88" t="n">
         <v>1669900</v>
@@ -2664,7 +2664,7 @@
         <v>58.439999</v>
       </c>
       <c r="F89" t="n">
-        <v>57.415737</v>
+        <v>57.415741</v>
       </c>
       <c r="G89" t="n">
         <v>2252100</v>
@@ -2739,7 +2739,7 @@
         <v>58.52</v>
       </c>
       <c r="F92" t="n">
-        <v>57.494339</v>
+        <v>57.494343</v>
       </c>
       <c r="G92" t="n">
         <v>10414100</v>
@@ -2764,7 +2764,7 @@
         <v>58.52</v>
       </c>
       <c r="F93" t="n">
-        <v>57.494339</v>
+        <v>57.494343</v>
       </c>
       <c r="G93" t="n">
         <v>2076500</v>
@@ -2789,7 +2789,7 @@
         <v>58.450001</v>
       </c>
       <c r="F94" t="n">
-        <v>57.425564</v>
+        <v>57.425568</v>
       </c>
       <c r="G94" t="n">
         <v>2691000</v>
@@ -2814,7 +2814,7 @@
         <v>58.380001</v>
       </c>
       <c r="F95" t="n">
-        <v>57.356796</v>
+        <v>57.356792</v>
       </c>
       <c r="G95" t="n">
         <v>2336100</v>
@@ -2864,7 +2864,7 @@
         <v>58.240002</v>
       </c>
       <c r="F97" t="n">
-        <v>57.21925</v>
+        <v>57.219246</v>
       </c>
       <c r="G97" t="n">
         <v>2547700</v>
@@ -2939,7 +2939,7 @@
         <v>58.130001</v>
       </c>
       <c r="F100" t="n">
-        <v>57.111179</v>
+        <v>57.111172</v>
       </c>
       <c r="G100" t="n">
         <v>5925100</v>
@@ -2964,7 +2964,7 @@
         <v>58.009998</v>
       </c>
       <c r="F101" t="n">
-        <v>56.993275</v>
+        <v>56.993279</v>
       </c>
       <c r="G101" t="n">
         <v>3509300</v>
@@ -2989,7 +2989,7 @@
         <v>57.970001</v>
       </c>
       <c r="F102" t="n">
-        <v>56.953983</v>
+        <v>56.953979</v>
       </c>
       <c r="G102" t="n">
         <v>2710500</v>
@@ -3014,7 +3014,7 @@
         <v>58.110001</v>
       </c>
       <c r="F103" t="n">
-        <v>57.09153</v>
+        <v>57.091526</v>
       </c>
       <c r="G103" t="n">
         <v>2152300</v>
@@ -3064,7 +3064,7 @@
         <v>58.110001</v>
       </c>
       <c r="F105" t="n">
-        <v>57.241131</v>
+        <v>57.241123</v>
       </c>
       <c r="G105" t="n">
         <v>4234800</v>
@@ -3164,7 +3164,7 @@
         <v>57.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>57.014565</v>
+        <v>57.014568</v>
       </c>
       <c r="G109" t="n">
         <v>2428900</v>
@@ -3214,7 +3214,7 @@
         <v>57.880001</v>
       </c>
       <c r="F111" t="n">
-        <v>57.014565</v>
+        <v>57.014568</v>
       </c>
       <c r="G111" t="n">
         <v>1852100</v>
@@ -3239,7 +3239,7 @@
         <v>57.919998</v>
       </c>
       <c r="F112" t="n">
-        <v>57.053963</v>
+        <v>57.053967</v>
       </c>
       <c r="G112" t="n">
         <v>1735600</v>
@@ -3264,7 +3264,7 @@
         <v>57.82</v>
       </c>
       <c r="F113" t="n">
-        <v>56.95546</v>
+        <v>56.955463</v>
       </c>
       <c r="G113" t="n">
         <v>2290700</v>
@@ -3289,7 +3289,7 @@
         <v>57.790001</v>
       </c>
       <c r="F114" t="n">
-        <v>56.925907</v>
+        <v>56.925911</v>
       </c>
       <c r="G114" t="n">
         <v>2288800</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.034267</v>
+        <v>57.034264</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3339,7 +3339,7 @@
         <v>57.82</v>
       </c>
       <c r="F116" t="n">
-        <v>56.95546</v>
+        <v>56.955463</v>
       </c>
       <c r="G116" t="n">
         <v>3299100</v>
@@ -3364,7 +3364,7 @@
         <v>57.860001</v>
       </c>
       <c r="F117" t="n">
-        <v>56.994865</v>
+        <v>56.994858</v>
       </c>
       <c r="G117" t="n">
         <v>1563600</v>
@@ -3464,7 +3464,7 @@
         <v>57.880001</v>
       </c>
       <c r="F121" t="n">
-        <v>57.014565</v>
+        <v>57.014568</v>
       </c>
       <c r="G121" t="n">
         <v>2136700</v>
@@ -3489,7 +3489,7 @@
         <v>57.790001</v>
       </c>
       <c r="F122" t="n">
-        <v>56.925907</v>
+        <v>56.925911</v>
       </c>
       <c r="G122" t="n">
         <v>3263600</v>
@@ -3514,7 +3514,7 @@
         <v>57.860001</v>
       </c>
       <c r="F123" t="n">
-        <v>56.994865</v>
+        <v>56.994858</v>
       </c>
       <c r="G123" t="n">
         <v>3098500</v>
@@ -3589,7 +3589,7 @@
         <v>57.509998</v>
       </c>
       <c r="F126" t="n">
-        <v>56.806557</v>
+        <v>56.806549</v>
       </c>
       <c r="G126" t="n">
         <v>2763700</v>
@@ -3614,7 +3614,7 @@
         <v>57.509998</v>
       </c>
       <c r="F127" t="n">
-        <v>56.806557</v>
+        <v>56.806549</v>
       </c>
       <c r="G127" t="n">
         <v>3049800</v>
@@ -3664,7 +3664,7 @@
         <v>57.509998</v>
       </c>
       <c r="F129" t="n">
-        <v>56.806557</v>
+        <v>56.806549</v>
       </c>
       <c r="G129" t="n">
         <v>2178900</v>
@@ -3789,7 +3789,7 @@
         <v>57.790001</v>
       </c>
       <c r="F134" t="n">
-        <v>57.083126</v>
+        <v>57.08313</v>
       </c>
       <c r="G134" t="n">
         <v>2117400</v>
@@ -3839,7 +3839,7 @@
         <v>57.799999</v>
       </c>
       <c r="F136" t="n">
-        <v>57.093002</v>
+        <v>57.09301</v>
       </c>
       <c r="G136" t="n">
         <v>1705300</v>
@@ -3889,7 +3889,7 @@
         <v>57.75</v>
       </c>
       <c r="F138" t="n">
-        <v>57.043617</v>
+        <v>57.043621</v>
       </c>
       <c r="G138" t="n">
         <v>1812200</v>
@@ -3939,7 +3939,7 @@
         <v>57.689999</v>
       </c>
       <c r="F140" t="n">
-        <v>56.984352</v>
+        <v>56.984348</v>
       </c>
       <c r="G140" t="n">
         <v>2301100</v>
@@ -3964,7 +3964,7 @@
         <v>57.689999</v>
       </c>
       <c r="F141" t="n">
-        <v>56.984352</v>
+        <v>56.984348</v>
       </c>
       <c r="G141" t="n">
         <v>1930700</v>
@@ -4039,7 +4039,7 @@
         <v>57.720001</v>
       </c>
       <c r="F144" t="n">
-        <v>57.013988</v>
+        <v>57.013985</v>
       </c>
       <c r="G144" t="n">
         <v>2188000</v>
@@ -4064,7 +4064,7 @@
         <v>57.740002</v>
       </c>
       <c r="F145" t="n">
-        <v>57.033741</v>
+        <v>57.033745</v>
       </c>
       <c r="G145" t="n">
         <v>2034400</v>
@@ -4089,7 +4089,7 @@
         <v>57.540001</v>
       </c>
       <c r="F146" t="n">
-        <v>57.005016</v>
+        <v>57.005013</v>
       </c>
       <c r="G146" t="n">
         <v>3840800</v>
@@ -4189,7 +4189,7 @@
         <v>57.720001</v>
       </c>
       <c r="F150" t="n">
-        <v>57.183342</v>
+        <v>57.183338</v>
       </c>
       <c r="G150" t="n">
         <v>1860200</v>
@@ -4239,7 +4239,7 @@
         <v>57.720001</v>
       </c>
       <c r="F152" t="n">
-        <v>57.183342</v>
+        <v>57.183338</v>
       </c>
       <c r="G152" t="n">
         <v>1707200</v>
@@ -4339,7 +4339,7 @@
         <v>57.610001</v>
       </c>
       <c r="F156" t="n">
-        <v>57.074364</v>
+        <v>57.07436</v>
       </c>
       <c r="G156" t="n">
         <v>1735900</v>
@@ -4414,7 +4414,7 @@
         <v>57.66</v>
       </c>
       <c r="F159" t="n">
-        <v>57.123898</v>
+        <v>57.123894</v>
       </c>
       <c r="G159" t="n">
         <v>1800800</v>
@@ -4439,7 +4439,7 @@
         <v>57.610001</v>
       </c>
       <c r="F160" t="n">
-        <v>57.074364</v>
+        <v>57.07436</v>
       </c>
       <c r="G160" t="n">
         <v>2142100</v>
@@ -4464,7 +4464,7 @@
         <v>57.57</v>
       </c>
       <c r="F161" t="n">
-        <v>57.034729</v>
+        <v>57.034733</v>
       </c>
       <c r="G161" t="n">
         <v>2326300</v>
@@ -4489,7 +4489,7 @@
         <v>57.66</v>
       </c>
       <c r="F162" t="n">
-        <v>57.123898</v>
+        <v>57.123894</v>
       </c>
       <c r="G162" t="n">
         <v>2462900</v>
@@ -4564,7 +4564,7 @@
         <v>57.630001</v>
       </c>
       <c r="F165" t="n">
-        <v>57.094173</v>
+        <v>57.094177</v>
       </c>
       <c r="G165" t="n">
         <v>2406800</v>
@@ -5842,7 +5842,32 @@
         <v>57.630001</v>
       </c>
       <c r="G216" t="n">
-        <v>3497667</v>
+        <v>3500500</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="C217" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="D217" t="n">
+        <v>57.560001</v>
+      </c>
+      <c r="E217" t="n">
+        <v>57.560001</v>
+      </c>
+      <c r="F217" t="n">
+        <v>57.560001</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2351066</v>
       </c>
     </row>
   </sheetData>
